--- a/data/pca/factorExposure/factorExposure_2011-05-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.0171946456574813</v>
+        <v>-0.01461861731396537</v>
       </c>
       <c r="C2">
-        <v>0.004922716975108514</v>
+        <v>0.0006258268291198186</v>
       </c>
       <c r="D2">
-        <v>-0.05528520874071807</v>
+        <v>0.006922369993922461</v>
       </c>
       <c r="E2">
-        <v>-0.01650635926058162</v>
+        <v>0.04231693875466102</v>
       </c>
       <c r="F2">
-        <v>-0.03227197554316386</v>
+        <v>-0.003039084572159726</v>
       </c>
       <c r="G2">
-        <v>0.02889983623333946</v>
+        <v>-0.009907027112002149</v>
       </c>
       <c r="H2">
-        <v>-0.01442124445444597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.03749171075388188</v>
+      </c>
+      <c r="I2">
+        <v>-0.01849839369727566</v>
+      </c>
+      <c r="J2">
+        <v>0.01452883068842632</v>
+      </c>
+      <c r="K2">
+        <v>-0.04971577428143201</v>
+      </c>
+      <c r="L2">
+        <v>-0.01845348282646396</v>
+      </c>
+      <c r="M2">
+        <v>0.0009840755892212213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.08314819575809061</v>
+        <v>-0.1092210925070783</v>
       </c>
       <c r="C4">
-        <v>-0.05872399848620341</v>
+        <v>-0.07486182468054219</v>
       </c>
       <c r="D4">
-        <v>-0.03109115895517157</v>
+        <v>0.01368102606004578</v>
       </c>
       <c r="E4">
-        <v>-0.03620554084375058</v>
+        <v>0.04400337760013826</v>
       </c>
       <c r="F4">
-        <v>-0.02588250076904115</v>
+        <v>0.1591781313175028</v>
       </c>
       <c r="G4">
-        <v>0.01845322215585573</v>
+        <v>0.01940797883983447</v>
       </c>
       <c r="H4">
-        <v>0.008126235452497245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.03629180376045826</v>
+      </c>
+      <c r="I4">
+        <v>0.04159198230956543</v>
+      </c>
+      <c r="J4">
+        <v>0.006019851856473407</v>
+      </c>
+      <c r="K4">
+        <v>0.09146263551347526</v>
+      </c>
+      <c r="L4">
+        <v>-0.03892341846197885</v>
+      </c>
+      <c r="M4">
+        <v>-0.05673919265829284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1308438201010265</v>
+        <v>-0.1337394187343381</v>
       </c>
       <c r="C6">
-        <v>-0.03658660526806962</v>
+        <v>-0.05317071535140797</v>
       </c>
       <c r="D6">
-        <v>-0.04450980771660467</v>
+        <v>-0.000175670312354616</v>
       </c>
       <c r="E6">
-        <v>-0.05079837281925299</v>
+        <v>-0.01009874521803236</v>
       </c>
       <c r="F6">
-        <v>0.1486933225942543</v>
+        <v>-0.01294654369560733</v>
       </c>
       <c r="G6">
-        <v>-0.1305360799407967</v>
+        <v>0.109709780566148</v>
       </c>
       <c r="H6">
-        <v>0.2136744021691648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.005105935360908974</v>
+      </c>
+      <c r="I6">
+        <v>0.367178017831687</v>
+      </c>
+      <c r="J6">
+        <v>-0.2753264226371689</v>
+      </c>
+      <c r="K6">
+        <v>0.03668765618827882</v>
+      </c>
+      <c r="L6">
+        <v>-0.1132070920701417</v>
+      </c>
+      <c r="M6">
+        <v>0.03760235193564914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.0739553597253164</v>
+        <v>-0.07017234687171968</v>
       </c>
       <c r="C7">
-        <v>-0.04961806471743172</v>
+        <v>-0.06402972811038242</v>
       </c>
       <c r="D7">
-        <v>-0.04515218600454996</v>
+        <v>0.01211334708919089</v>
       </c>
       <c r="E7">
-        <v>-0.04955963339788259</v>
+        <v>0.04821266994143591</v>
       </c>
       <c r="F7">
-        <v>0.04141400224394368</v>
+        <v>0.03446660424869048</v>
       </c>
       <c r="G7">
-        <v>0.001331639044478674</v>
+        <v>0.003729567138397935</v>
       </c>
       <c r="H7">
-        <v>-0.01985405046837875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02026334706157751</v>
+      </c>
+      <c r="I7">
+        <v>-0.02486048782848378</v>
+      </c>
+      <c r="J7">
+        <v>0.07671952401711774</v>
+      </c>
+      <c r="K7">
+        <v>0.08648032152481643</v>
+      </c>
+      <c r="L7">
+        <v>-0.01517641858319292</v>
+      </c>
+      <c r="M7">
+        <v>0.05795142488608535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.0359309338754242</v>
+        <v>-0.04209974500242991</v>
       </c>
       <c r="C8">
-        <v>-0.02323678863887576</v>
+        <v>-0.01981755115360471</v>
       </c>
       <c r="D8">
-        <v>-0.06171295900488013</v>
+        <v>0.007508471115587653</v>
       </c>
       <c r="E8">
-        <v>-0.04909507788328846</v>
+        <v>0.01450683468178781</v>
       </c>
       <c r="F8">
-        <v>-0.01685688997123358</v>
+        <v>0.1375321280033372</v>
       </c>
       <c r="G8">
-        <v>0.0541920887094153</v>
+        <v>-0.01074867669126397</v>
       </c>
       <c r="H8">
-        <v>0.05352637325533464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.02577178682982658</v>
+      </c>
+      <c r="I8">
+        <v>0.06914637467054535</v>
+      </c>
+      <c r="J8">
+        <v>0.02785565963154146</v>
+      </c>
+      <c r="K8">
+        <v>0.0666476696211932</v>
+      </c>
+      <c r="L8">
+        <v>-0.0759348750220939</v>
+      </c>
+      <c r="M8">
+        <v>-0.07149119751165124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.08145246922753541</v>
+        <v>-0.08400239937498237</v>
       </c>
       <c r="C9">
-        <v>-0.06329158900219353</v>
+        <v>-0.06695454901869133</v>
       </c>
       <c r="D9">
-        <v>-0.03507783800526082</v>
+        <v>-0.004521301017807697</v>
       </c>
       <c r="E9">
-        <v>-0.03394901017811923</v>
+        <v>0.03214100074861412</v>
       </c>
       <c r="F9">
-        <v>-0.02511896717697698</v>
+        <v>0.1417047697734189</v>
       </c>
       <c r="G9">
-        <v>0.0182741656507915</v>
+        <v>0.02497606421720809</v>
       </c>
       <c r="H9">
-        <v>0.01660015630657119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.007691119656340188</v>
+      </c>
+      <c r="I9">
+        <v>0.0119179499056042</v>
+      </c>
+      <c r="J9">
+        <v>0.01501709928785895</v>
+      </c>
+      <c r="K9">
+        <v>0.04904308956665795</v>
+      </c>
+      <c r="L9">
+        <v>-0.03777570146995386</v>
+      </c>
+      <c r="M9">
+        <v>0.01018363883939358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.05278171941554435</v>
+        <v>-0.1114084528483436</v>
       </c>
       <c r="C10">
-        <v>0.1431150835652282</v>
+        <v>0.1639430352240496</v>
       </c>
       <c r="D10">
-        <v>-0.07883674857384394</v>
+        <v>0.0120476319095673</v>
       </c>
       <c r="E10">
-        <v>-0.04115228599311813</v>
+        <v>0.03923503199716283</v>
       </c>
       <c r="F10">
-        <v>0.03549486382021699</v>
+        <v>-0.01808733087879785</v>
       </c>
       <c r="G10">
-        <v>-0.01135288016590774</v>
+        <v>0.02956683958990865</v>
       </c>
       <c r="H10">
-        <v>0.02078107740598813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.016577776475388</v>
+      </c>
+      <c r="I10">
+        <v>-0.01859734311888974</v>
+      </c>
+      <c r="J10">
+        <v>-0.008660829016669138</v>
+      </c>
+      <c r="K10">
+        <v>-0.007663207378531763</v>
+      </c>
+      <c r="L10">
+        <v>0.04101876523955161</v>
+      </c>
+      <c r="M10">
+        <v>0.1063759451813933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07547904082230442</v>
+        <v>-0.06842597045210218</v>
       </c>
       <c r="C11">
-        <v>-0.07794775772489995</v>
+        <v>-0.07200116908754275</v>
       </c>
       <c r="D11">
-        <v>-0.01601478965736573</v>
+        <v>-0.03022266880201038</v>
       </c>
       <c r="E11">
-        <v>0.001528517435289599</v>
+        <v>0.0180826817831535</v>
       </c>
       <c r="F11">
-        <v>-0.0340719402682669</v>
+        <v>0.1165670463342211</v>
       </c>
       <c r="G11">
-        <v>0.09520715438498488</v>
+        <v>0.01235437230250186</v>
       </c>
       <c r="H11">
-        <v>0.01085007775323914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.04962611066352592</v>
+      </c>
+      <c r="I11">
+        <v>-0.06946167027130391</v>
+      </c>
+      <c r="J11">
+        <v>0.04223388428564034</v>
+      </c>
+      <c r="K11">
+        <v>-0.06566589658029934</v>
+      </c>
+      <c r="L11">
+        <v>-0.0307607284399581</v>
+      </c>
+      <c r="M11">
+        <v>0.1235701686505953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07099011362560241</v>
+        <v>-0.06837822527441846</v>
       </c>
       <c r="C12">
-        <v>-0.04957033070957729</v>
+        <v>-0.06372078007313642</v>
       </c>
       <c r="D12">
-        <v>-0.00475414659403404</v>
+        <v>-0.02816198509545496</v>
       </c>
       <c r="E12">
-        <v>-0.041580163829911</v>
+        <v>0.005667272402600138</v>
       </c>
       <c r="F12">
-        <v>-0.01565190323135344</v>
+        <v>0.1294359416102763</v>
       </c>
       <c r="G12">
-        <v>0.07619649984739883</v>
+        <v>0.0003927528753128135</v>
       </c>
       <c r="H12">
-        <v>0.0209491783821309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.04802506211911498</v>
+      </c>
+      <c r="I12">
+        <v>-0.03698981078623945</v>
+      </c>
+      <c r="J12">
+        <v>0.05421548782162057</v>
+      </c>
+      <c r="K12">
+        <v>-0.05684232335766967</v>
+      </c>
+      <c r="L12">
+        <v>-0.04698907964783722</v>
+      </c>
+      <c r="M12">
+        <v>0.1369927126977935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.06174578257559798</v>
+        <v>-0.04557864679156361</v>
       </c>
       <c r="C13">
-        <v>-0.009632170197218268</v>
+        <v>-0.03328098584449658</v>
       </c>
       <c r="D13">
-        <v>0.004069716150850874</v>
+        <v>0.02088128375248819</v>
       </c>
       <c r="E13">
-        <v>-0.01956161005541746</v>
+        <v>0.01007510394574313</v>
       </c>
       <c r="F13">
-        <v>-0.05984508760633288</v>
+        <v>0.04882694871861258</v>
       </c>
       <c r="G13">
-        <v>0.005956857366075783</v>
+        <v>-0.003592205448835535</v>
       </c>
       <c r="H13">
-        <v>0.03213647856840823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.01919309813363136</v>
+      </c>
+      <c r="I13">
+        <v>0.008453234675213056</v>
+      </c>
+      <c r="J13">
+        <v>0.02259312541395385</v>
+      </c>
+      <c r="K13">
+        <v>0.04093113488481993</v>
+      </c>
+      <c r="L13">
+        <v>0.01473883163157296</v>
+      </c>
+      <c r="M13">
+        <v>-0.02620700329113561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04954844118887515</v>
+        <v>-0.03952946913348253</v>
       </c>
       <c r="C14">
-        <v>-0.01874617252993605</v>
+        <v>-0.02769942666316644</v>
       </c>
       <c r="D14">
-        <v>-0.02409218878192116</v>
+        <v>-0.01464909801121964</v>
       </c>
       <c r="E14">
-        <v>-0.02096051005467713</v>
+        <v>0.01413584718403037</v>
       </c>
       <c r="F14">
-        <v>0.02516709285961748</v>
+        <v>0.06909017912685139</v>
       </c>
       <c r="G14">
-        <v>-0.02755009288623466</v>
+        <v>-0.00691158158999454</v>
       </c>
       <c r="H14">
-        <v>0.08361102135657683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.03400836447074294</v>
+      </c>
+      <c r="I14">
+        <v>0.003479707611931063</v>
+      </c>
+      <c r="J14">
+        <v>-0.01700738863619044</v>
+      </c>
+      <c r="K14">
+        <v>0.09861904803397406</v>
+      </c>
+      <c r="L14">
+        <v>-0.02600411457809801</v>
+      </c>
+      <c r="M14">
+        <v>0.001596663459464078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03591478005551276</v>
+        <v>-0.02502405305499151</v>
       </c>
       <c r="C15">
-        <v>0.007735897114304883</v>
+        <v>-0.009311565000737737</v>
       </c>
       <c r="D15">
-        <v>0.00457655695662337</v>
+        <v>0.05527472654617278</v>
       </c>
       <c r="E15">
-        <v>-0.02092593522061495</v>
+        <v>0.004267677258910155</v>
       </c>
       <c r="F15">
-        <v>-0.01135308731368872</v>
+        <v>0.008138757475254813</v>
       </c>
       <c r="G15">
-        <v>-0.01429987781387261</v>
+        <v>0.03666459806094229</v>
       </c>
       <c r="H15">
-        <v>0.02643452429679984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.01922043375735413</v>
+      </c>
+      <c r="I15">
+        <v>0.005468329009995858</v>
+      </c>
+      <c r="J15">
+        <v>-0.01572301938763214</v>
+      </c>
+      <c r="K15">
+        <v>0.0798130099320636</v>
+      </c>
+      <c r="L15">
+        <v>0.0001422552876588361</v>
+      </c>
+      <c r="M15">
+        <v>0.009924634998280829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06735825141074143</v>
+        <v>-0.07173895731812159</v>
       </c>
       <c r="C16">
-        <v>-0.07843692783124576</v>
+        <v>-0.07846747375467261</v>
       </c>
       <c r="D16">
-        <v>-0.01903550004613844</v>
+        <v>-0.02019442339535229</v>
       </c>
       <c r="E16">
-        <v>-0.03075901755419632</v>
+        <v>0.01651158188326248</v>
       </c>
       <c r="F16">
-        <v>-0.04220853699610103</v>
+        <v>0.1184429340608564</v>
       </c>
       <c r="G16">
-        <v>0.0695557124469136</v>
+        <v>-0.0001657087560517305</v>
       </c>
       <c r="H16">
-        <v>0.01375350735099623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.03470678780890243</v>
+      </c>
+      <c r="I16">
+        <v>-0.05079658073088915</v>
+      </c>
+      <c r="J16">
+        <v>0.06107475689908731</v>
+      </c>
+      <c r="K16">
+        <v>-0.04737691503237114</v>
+      </c>
+      <c r="L16">
+        <v>-0.04966165656520088</v>
+      </c>
+      <c r="M16">
+        <v>0.12986169620532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04592926085232611</v>
+        <v>-0.04697899324965176</v>
       </c>
       <c r="C20">
-        <v>-0.04263615721276675</v>
+        <v>-0.03218810464255325</v>
       </c>
       <c r="D20">
-        <v>-0.01047276014935842</v>
+        <v>0.02311221141445078</v>
       </c>
       <c r="E20">
-        <v>-0.01159980613235719</v>
+        <v>0.0199805558553292</v>
       </c>
       <c r="F20">
-        <v>-0.01513671512017215</v>
+        <v>0.06966903560784755</v>
       </c>
       <c r="G20">
-        <v>0.02072533426414656</v>
+        <v>-0.02383028251329974</v>
       </c>
       <c r="H20">
-        <v>0.008443568859760648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.01722368424184395</v>
+      </c>
+      <c r="I20">
+        <v>0.01287813142421541</v>
+      </c>
+      <c r="J20">
+        <v>0.01575349353992051</v>
+      </c>
+      <c r="K20">
+        <v>0.06160045460117471</v>
+      </c>
+      <c r="L20">
+        <v>-0.04422975561983686</v>
+      </c>
+      <c r="M20">
+        <v>0.02550641449657623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02260889199453219</v>
+        <v>-0.02361748002339315</v>
       </c>
       <c r="C21">
-        <v>-0.02960106396986771</v>
+        <v>-0.02397160678671643</v>
       </c>
       <c r="D21">
-        <v>-0.004349314698196157</v>
+        <v>0.005990124551725766</v>
       </c>
       <c r="E21">
-        <v>-0.05608249766928758</v>
+        <v>0.01838970937679213</v>
       </c>
       <c r="F21">
-        <v>0.09033666742084051</v>
+        <v>0.0658428036554385</v>
       </c>
       <c r="G21">
-        <v>-0.02331845886415183</v>
+        <v>0.07344652059590821</v>
       </c>
       <c r="H21">
-        <v>-0.02067275504683955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.09949850116785922</v>
+      </c>
+      <c r="I21">
+        <v>0.01280631545049945</v>
+      </c>
+      <c r="J21">
+        <v>0.02246312806438696</v>
+      </c>
+      <c r="K21">
+        <v>0.1247349921159246</v>
+      </c>
+      <c r="L21">
+        <v>0.03845082564037271</v>
+      </c>
+      <c r="M21">
+        <v>0.05070717090139891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01740423973305866</v>
+        <v>-0.04385818888393556</v>
       </c>
       <c r="C22">
-        <v>-0.04175123437727269</v>
+        <v>-0.02832124102908246</v>
       </c>
       <c r="D22">
-        <v>0.06292409675165794</v>
+        <v>0.6527984141210542</v>
       </c>
       <c r="E22">
-        <v>-0.5244564959192932</v>
+        <v>0.06486942639326782</v>
       </c>
       <c r="F22">
-        <v>-0.2472752025553685</v>
+        <v>-0.05547034885515575</v>
       </c>
       <c r="G22">
-        <v>-0.1258465631899496</v>
+        <v>-0.1358797440485264</v>
       </c>
       <c r="H22">
-        <v>-0.188272879252435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1078564550199121</v>
+      </c>
+      <c r="I22">
+        <v>-0.01583424604246254</v>
+      </c>
+      <c r="J22">
+        <v>-0.02510194231528846</v>
+      </c>
+      <c r="K22">
+        <v>-0.03638947587763879</v>
+      </c>
+      <c r="L22">
+        <v>0.009395025999207388</v>
+      </c>
+      <c r="M22">
+        <v>0.004375015170765141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01624110007133866</v>
+        <v>-0.04409972489014799</v>
       </c>
       <c r="C23">
-        <v>-0.04066153282587813</v>
+        <v>-0.02867551905608494</v>
       </c>
       <c r="D23">
-        <v>0.06228075214483236</v>
+        <v>0.6543352731389341</v>
       </c>
       <c r="E23">
-        <v>-0.5232020417379014</v>
+        <v>0.06447130529046935</v>
       </c>
       <c r="F23">
-        <v>-0.2456939867636867</v>
+        <v>-0.05269069504437501</v>
       </c>
       <c r="G23">
-        <v>-0.1276656086701281</v>
+        <v>-0.1364883465191268</v>
       </c>
       <c r="H23">
-        <v>-0.1868500070639523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1058627674341609</v>
+      </c>
+      <c r="I23">
+        <v>-0.01285267503547907</v>
+      </c>
+      <c r="J23">
+        <v>-0.02716295234523803</v>
+      </c>
+      <c r="K23">
+        <v>-0.03821761925966665</v>
+      </c>
+      <c r="L23">
+        <v>0.007641034993816474</v>
+      </c>
+      <c r="M23">
+        <v>0.005019812775464425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07880533328962283</v>
+        <v>-0.07554814690084592</v>
       </c>
       <c r="C24">
-        <v>-0.06586210638221279</v>
+        <v>-0.07381623417693026</v>
       </c>
       <c r="D24">
-        <v>-0.01840227268486593</v>
+        <v>-0.01523607380512799</v>
       </c>
       <c r="E24">
-        <v>-0.03418700193288197</v>
+        <v>0.02460950879768164</v>
       </c>
       <c r="F24">
-        <v>-0.02358963226211159</v>
+        <v>0.1174309335095367</v>
       </c>
       <c r="G24">
-        <v>0.06972969188937547</v>
+        <v>0.009751487607295923</v>
       </c>
       <c r="H24">
-        <v>0.0233573926537948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.04118429155999607</v>
+      </c>
+      <c r="I24">
+        <v>-0.053006765172471</v>
+      </c>
+      <c r="J24">
+        <v>0.03576710008048279</v>
+      </c>
+      <c r="K24">
+        <v>-0.06923356443834618</v>
+      </c>
+      <c r="L24">
+        <v>-0.04403858260554264</v>
+      </c>
+      <c r="M24">
+        <v>0.1051014645183218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.07441576753466649</v>
+        <v>-0.07316415881518645</v>
       </c>
       <c r="C25">
-        <v>-0.04139999315417945</v>
+        <v>-0.05183073355195842</v>
       </c>
       <c r="D25">
-        <v>-0.0261354127687149</v>
+        <v>-0.03425383368481992</v>
       </c>
       <c r="E25">
-        <v>-0.03605134476766512</v>
+        <v>0.01521879588165788</v>
       </c>
       <c r="F25">
-        <v>-0.02498872086529575</v>
+        <v>0.1190518019938801</v>
       </c>
       <c r="G25">
-        <v>0.06713813482203966</v>
+        <v>0.0009973149527745847</v>
       </c>
       <c r="H25">
-        <v>0.03855832710549073</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.03002912935535743</v>
+      </c>
+      <c r="I25">
+        <v>-0.0500083478155532</v>
+      </c>
+      <c r="J25">
+        <v>0.04052396281593477</v>
+      </c>
+      <c r="K25">
+        <v>-0.06998638064428468</v>
+      </c>
+      <c r="L25">
+        <v>-0.05971457061772669</v>
+      </c>
+      <c r="M25">
+        <v>0.11117575365875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04836693281471621</v>
+        <v>-0.04356276338011431</v>
       </c>
       <c r="C26">
-        <v>-0.04076564017288434</v>
+        <v>-0.01672772579505588</v>
       </c>
       <c r="D26">
-        <v>-0.03879993668266837</v>
+        <v>0.0112605105103078</v>
       </c>
       <c r="E26">
-        <v>-0.006108013400171596</v>
+        <v>0.002948920566705284</v>
       </c>
       <c r="F26">
-        <v>-0.02116390698246504</v>
+        <v>0.05155031406362914</v>
       </c>
       <c r="G26">
-        <v>-0.018774549133609</v>
+        <v>-0.01569445735923239</v>
       </c>
       <c r="H26">
-        <v>0.01763075770474408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01370863375253785</v>
+      </c>
+      <c r="I26">
+        <v>-0.01070777693655599</v>
+      </c>
+      <c r="J26">
+        <v>-0.004193709071087239</v>
+      </c>
+      <c r="K26">
+        <v>0.1269777645928397</v>
+      </c>
+      <c r="L26">
+        <v>0.02792285097365877</v>
+      </c>
+      <c r="M26">
+        <v>0.05558744963009889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.09640752576715436</v>
+        <v>-0.1455452596484903</v>
       </c>
       <c r="C28">
-        <v>0.2929671997104328</v>
+        <v>0.2854379504472999</v>
       </c>
       <c r="D28">
-        <v>-0.0685590529653259</v>
+        <v>-0.008107747237370944</v>
       </c>
       <c r="E28">
-        <v>-0.009155312598952447</v>
+        <v>0.02413535288381235</v>
       </c>
       <c r="F28">
-        <v>0.04184850849259458</v>
+        <v>0.003124159042176534</v>
       </c>
       <c r="G28">
-        <v>0.01124258531201645</v>
+        <v>0.003272056613427382</v>
       </c>
       <c r="H28">
-        <v>-0.07265347623076693</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01872659303384314</v>
+      </c>
+      <c r="I28">
+        <v>0.02090731214514337</v>
+      </c>
+      <c r="J28">
+        <v>0.0235797687548682</v>
+      </c>
+      <c r="K28">
+        <v>0.0122727951350898</v>
+      </c>
+      <c r="L28">
+        <v>0.01607367906403506</v>
+      </c>
+      <c r="M28">
+        <v>-0.005446321089124451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05130666219086567</v>
+        <v>-0.04054701234078608</v>
       </c>
       <c r="C29">
-        <v>-0.01554684558093572</v>
+        <v>-0.02746280833973624</v>
       </c>
       <c r="D29">
-        <v>-0.01115566111587562</v>
+        <v>-0.005775718702897356</v>
       </c>
       <c r="E29">
-        <v>-0.02883493982817172</v>
+        <v>0.01562696361784318</v>
       </c>
       <c r="F29">
-        <v>-0.01224495844723492</v>
+        <v>0.0701939482178166</v>
       </c>
       <c r="G29">
-        <v>-0.01658750977050924</v>
+        <v>-0.01973233352479009</v>
       </c>
       <c r="H29">
-        <v>0.02547754393014719</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.01252344962721249</v>
+      </c>
+      <c r="I29">
+        <v>0.01253075742944522</v>
+      </c>
+      <c r="J29">
+        <v>-0.01082269797849422</v>
+      </c>
+      <c r="K29">
+        <v>0.09007143759265954</v>
+      </c>
+      <c r="L29">
+        <v>-0.01952942717412275</v>
+      </c>
+      <c r="M29">
+        <v>0.01724183979025685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1292427738253789</v>
+        <v>-0.1055403640395004</v>
       </c>
       <c r="C30">
-        <v>-0.05123328183462</v>
+        <v>-0.06007318134335276</v>
       </c>
       <c r="D30">
-        <v>-0.04898540699485904</v>
+        <v>-0.005319433818709012</v>
       </c>
       <c r="E30">
-        <v>-0.1131401401021952</v>
+        <v>0.02963334790957365</v>
       </c>
       <c r="F30">
-        <v>0.02915027981668272</v>
+        <v>0.2242223051881396</v>
       </c>
       <c r="G30">
-        <v>0.167230544655951</v>
+        <v>-0.1612613959961197</v>
       </c>
       <c r="H30">
-        <v>0.06913273602115579</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.2474918419009961</v>
+      </c>
+      <c r="I30">
+        <v>0.1308276404998643</v>
+      </c>
+      <c r="J30">
+        <v>0.02910684746524227</v>
+      </c>
+      <c r="K30">
+        <v>0.1054793660399053</v>
+      </c>
+      <c r="L30">
+        <v>-0.08899298382111662</v>
+      </c>
+      <c r="M30">
+        <v>-0.4736514698298693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05045630030201514</v>
+        <v>-0.0382796069859337</v>
       </c>
       <c r="C31">
-        <v>-0.02183552602904188</v>
+        <v>-0.05076341549353493</v>
       </c>
       <c r="D31">
-        <v>0.01190166070046867</v>
+        <v>0.003697749719907779</v>
       </c>
       <c r="E31">
-        <v>-0.002795897487233205</v>
+        <v>-0.008839525302607315</v>
       </c>
       <c r="F31">
-        <v>-0.02517085425844667</v>
+        <v>0.02953795064274992</v>
       </c>
       <c r="G31">
-        <v>-0.03461038619706566</v>
+        <v>-0.0141702917759936</v>
       </c>
       <c r="H31">
-        <v>0.005952826420022786</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.04479296963709174</v>
+      </c>
+      <c r="I31">
+        <v>-0.003060100292736091</v>
+      </c>
+      <c r="J31">
+        <v>-0.005009834402021259</v>
+      </c>
+      <c r="K31">
+        <v>0.02214439104559291</v>
+      </c>
+      <c r="L31">
+        <v>-0.03204697906210013</v>
+      </c>
+      <c r="M31">
+        <v>0.00236563833636932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01652780661654921</v>
+        <v>-0.04393426954664256</v>
       </c>
       <c r="C32">
-        <v>0.01793400720420898</v>
+        <v>0.001898819621556524</v>
       </c>
       <c r="D32">
-        <v>0.002081798265256497</v>
+        <v>-0.01375640939677253</v>
       </c>
       <c r="E32">
-        <v>-0.07691428104790254</v>
+        <v>-0.01700327449343476</v>
       </c>
       <c r="F32">
-        <v>-0.1018526831586681</v>
+        <v>0.08634107315247835</v>
       </c>
       <c r="G32">
-        <v>0.05566578004982865</v>
+        <v>0.01852404673048909</v>
       </c>
       <c r="H32">
-        <v>0.006214285827139014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.03383165869548626</v>
+      </c>
+      <c r="I32">
+        <v>-0.04832822686813924</v>
+      </c>
+      <c r="J32">
+        <v>0.03903196886822722</v>
+      </c>
+      <c r="K32">
+        <v>0.05433751955510473</v>
+      </c>
+      <c r="L32">
+        <v>-0.02329602381629881</v>
+      </c>
+      <c r="M32">
+        <v>-0.1611737847173689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1081539484900904</v>
+        <v>-0.0986571001599551</v>
       </c>
       <c r="C33">
-        <v>-0.03904993510531939</v>
+        <v>-0.06534056558798278</v>
       </c>
       <c r="D33">
-        <v>-0.002751995909841867</v>
+        <v>-0.0171393280473881</v>
       </c>
       <c r="E33">
-        <v>-0.01649801677851839</v>
+        <v>-0.008437989013631846</v>
       </c>
       <c r="F33">
-        <v>-0.0536170965439864</v>
+        <v>0.0828607327288773</v>
       </c>
       <c r="G33">
-        <v>0.02366673147387271</v>
+        <v>-0.01856022903012156</v>
       </c>
       <c r="H33">
-        <v>0.03617258569708984</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.00226603944140039</v>
+      </c>
+      <c r="I33">
+        <v>-0.02203676521440112</v>
+      </c>
+      <c r="J33">
+        <v>-0.03801422365106066</v>
+      </c>
+      <c r="K33">
+        <v>0.03010204006378821</v>
+      </c>
+      <c r="L33">
+        <v>-0.009316887823468661</v>
+      </c>
+      <c r="M33">
+        <v>0.003868384448466421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05641585160571026</v>
+        <v>-0.06369501439152887</v>
       </c>
       <c r="C34">
-        <v>-0.06882978100814195</v>
+        <v>-0.06509851181592427</v>
       </c>
       <c r="D34">
-        <v>-0.006601990840472661</v>
+        <v>-0.02302441401203691</v>
       </c>
       <c r="E34">
-        <v>-0.01572054322704301</v>
+        <v>0.0095242125560505</v>
       </c>
       <c r="F34">
-        <v>-0.02273685377666104</v>
+        <v>0.1098530937456911</v>
       </c>
       <c r="G34">
-        <v>0.05039987840884427</v>
+        <v>0.005349219472116603</v>
       </c>
       <c r="H34">
-        <v>0.009615246297268176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.02072836534316467</v>
+      </c>
+      <c r="I34">
+        <v>-0.05071611660133976</v>
+      </c>
+      <c r="J34">
+        <v>0.05980701216292215</v>
+      </c>
+      <c r="K34">
+        <v>-0.01994708159334838</v>
+      </c>
+      <c r="L34">
+        <v>-0.04658920519999785</v>
+      </c>
+      <c r="M34">
+        <v>0.1199738144547848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04563872687630856</v>
+        <v>-0.02574986086480358</v>
       </c>
       <c r="C35">
-        <v>-0.03624875152933493</v>
+        <v>-0.02623876588091798</v>
       </c>
       <c r="D35">
-        <v>0.00743460591960077</v>
+        <v>0.001029799490660852</v>
       </c>
       <c r="E35">
-        <v>-0.01900753536481966</v>
+        <v>-0.009260977777523292</v>
       </c>
       <c r="F35">
-        <v>0.005468695401663005</v>
+        <v>0.03949502415435428</v>
       </c>
       <c r="G35">
-        <v>0.005236046042122749</v>
+        <v>-0.01721308787443413</v>
       </c>
       <c r="H35">
-        <v>0.03017619271905323</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.02060197991628799</v>
+      </c>
+      <c r="I35">
+        <v>-0.01675545297855304</v>
+      </c>
+      <c r="J35">
+        <v>0.05013723656219268</v>
+      </c>
+      <c r="K35">
+        <v>0.05912355638882245</v>
+      </c>
+      <c r="L35">
+        <v>-0.0340934514903975</v>
+      </c>
+      <c r="M35">
+        <v>0.01023632787360003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03476358394767939</v>
+        <v>-0.02755695616490347</v>
       </c>
       <c r="C36">
-        <v>-0.02009261132447086</v>
+        <v>-0.0170844175326814</v>
       </c>
       <c r="D36">
-        <v>-0.02636391394991114</v>
+        <v>0.01217361811103979</v>
       </c>
       <c r="E36">
-        <v>-0.03353975766372053</v>
+        <v>0.01343592229080297</v>
       </c>
       <c r="F36">
-        <v>-0.02586241480656006</v>
+        <v>0.06665248451213958</v>
       </c>
       <c r="G36">
-        <v>0.003790934659334638</v>
+        <v>-0.006482734560768046</v>
       </c>
       <c r="H36">
-        <v>0.05284672341751603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.009063331786421795</v>
+      </c>
+      <c r="I36">
+        <v>0.01300725088030839</v>
+      </c>
+      <c r="J36">
+        <v>-0.02642683520995634</v>
+      </c>
+      <c r="K36">
+        <v>0.03681742097083079</v>
+      </c>
+      <c r="L36">
+        <v>-0.01220923892020718</v>
+      </c>
+      <c r="M36">
+        <v>0.05719028229457557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.05128911506758332</v>
+        <v>-0.02872078038561296</v>
       </c>
       <c r="C38">
-        <v>-0.04078354609241114</v>
+        <v>-0.04748667825044996</v>
       </c>
       <c r="D38">
-        <v>-0.002407576063281742</v>
+        <v>0.02003669136018402</v>
       </c>
       <c r="E38">
-        <v>-0.02563110191315985</v>
+        <v>0.01233373454643864</v>
       </c>
       <c r="F38">
-        <v>-0.04279300209719637</v>
+        <v>-0.04821403677462152</v>
       </c>
       <c r="G38">
-        <v>0.02806664321708687</v>
+        <v>-0.05028447693430652</v>
       </c>
       <c r="H38">
-        <v>-0.01668153805408266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.002137108087862979</v>
+      </c>
+      <c r="I38">
+        <v>-0.01639711614521965</v>
+      </c>
+      <c r="J38">
+        <v>0.003386999130863005</v>
+      </c>
+      <c r="K38">
+        <v>0.07691649012965297</v>
+      </c>
+      <c r="L38">
+        <v>0.102636304136059</v>
+      </c>
+      <c r="M38">
+        <v>-0.07470323125458861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.1019239264624051</v>
+        <v>-0.1042272552051763</v>
       </c>
       <c r="C39">
-        <v>-0.08145832928000364</v>
+        <v>-0.09366144023196883</v>
       </c>
       <c r="D39">
-        <v>0.004073487118560414</v>
+        <v>-0.0865956746948565</v>
       </c>
       <c r="E39">
-        <v>-0.03095250707929982</v>
+        <v>-0.02396148704430337</v>
       </c>
       <c r="F39">
-        <v>-0.01664782523181602</v>
+        <v>0.163963444192007</v>
       </c>
       <c r="G39">
-        <v>0.1238502215907819</v>
+        <v>-0.0977955054335202</v>
       </c>
       <c r="H39">
-        <v>-0.0432919457169342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.09903130349935439</v>
+      </c>
+      <c r="I39">
+        <v>-0.04872295258626533</v>
+      </c>
+      <c r="J39">
+        <v>0.143971768006792</v>
+      </c>
+      <c r="K39">
+        <v>-0.1285501614097901</v>
+      </c>
+      <c r="L39">
+        <v>-0.09475154816161459</v>
+      </c>
+      <c r="M39">
+        <v>-0.006671230323262181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04764379091437423</v>
+        <v>-0.03292907934806728</v>
       </c>
       <c r="C40">
-        <v>-0.03134460546559053</v>
+        <v>-0.05994499714166521</v>
       </c>
       <c r="D40">
-        <v>0.04991135495309577</v>
+        <v>0.04321445547337331</v>
       </c>
       <c r="E40">
-        <v>-0.1178411269107417</v>
+        <v>0.01199590144901699</v>
       </c>
       <c r="F40">
-        <v>-0.06900786633425587</v>
+        <v>0.1090971318263929</v>
       </c>
       <c r="G40">
-        <v>0.1446047649669093</v>
+        <v>0.03800883451816065</v>
       </c>
       <c r="H40">
-        <v>0.02577681421300102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.08400267728094314</v>
+      </c>
+      <c r="I40">
+        <v>-0.02710189597901346</v>
+      </c>
+      <c r="J40">
+        <v>-0.005394174099938396</v>
+      </c>
+      <c r="K40">
+        <v>0.07248161681529289</v>
+      </c>
+      <c r="L40">
+        <v>0.1113462465587841</v>
+      </c>
+      <c r="M40">
+        <v>-0.1048675118310052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04667614690438537</v>
+        <v>-0.04039728935527394</v>
       </c>
       <c r="C41">
-        <v>-0.04348242841254318</v>
+        <v>-0.03938677883493272</v>
       </c>
       <c r="D41">
-        <v>-0.003596474523712921</v>
+        <v>-0.01532875283219117</v>
       </c>
       <c r="E41">
-        <v>0.005965167018702483</v>
+        <v>-0.003672889912007919</v>
       </c>
       <c r="F41">
-        <v>-0.02501858505063911</v>
+        <v>0.02529395183489192</v>
       </c>
       <c r="G41">
-        <v>0.02013407156730912</v>
+        <v>-0.0240384072390171</v>
       </c>
       <c r="H41">
-        <v>-0.003506112891127227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.00301428130051686</v>
+      </c>
+      <c r="I41">
+        <v>-0.01557007259799992</v>
+      </c>
+      <c r="J41">
+        <v>0.03095317758646018</v>
+      </c>
+      <c r="K41">
+        <v>0.04320731640500435</v>
+      </c>
+      <c r="L41">
+        <v>0.004908221903854579</v>
+      </c>
+      <c r="M41">
+        <v>0.01287005795031286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06269446050696875</v>
+        <v>-0.05097626850708254</v>
       </c>
       <c r="C43">
-        <v>-0.03450235778863653</v>
+        <v>-0.04573785250411869</v>
       </c>
       <c r="D43">
-        <v>-0.02547279124394444</v>
+        <v>0.01154880430595313</v>
       </c>
       <c r="E43">
-        <v>-0.02920465614726889</v>
+        <v>0.009426381327273062</v>
       </c>
       <c r="F43">
-        <v>-0.01993912336766568</v>
+        <v>0.01717431176226218</v>
       </c>
       <c r="G43">
-        <v>0.001636984793750577</v>
+        <v>-0.05148489771018008</v>
       </c>
       <c r="H43">
-        <v>-0.006674031921726402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.007363381632817811</v>
+      </c>
+      <c r="I43">
+        <v>0.01232629288577219</v>
+      </c>
+      <c r="J43">
+        <v>0.04258081456562705</v>
+      </c>
+      <c r="K43">
+        <v>0.02152417422852225</v>
+      </c>
+      <c r="L43">
+        <v>-0.006432189353566339</v>
+      </c>
+      <c r="M43">
+        <v>0.03030222049917016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05220742069013293</v>
+        <v>-0.08519608259641334</v>
       </c>
       <c r="C44">
-        <v>-0.02116916734004553</v>
+        <v>-0.06226991291335506</v>
       </c>
       <c r="D44">
-        <v>-0.08323450841542156</v>
+        <v>0.07609440884340547</v>
       </c>
       <c r="E44">
-        <v>-0.07582868897767665</v>
+        <v>0.07789999229112762</v>
       </c>
       <c r="F44">
-        <v>-0.01766222429826612</v>
+        <v>0.1725856261048679</v>
       </c>
       <c r="G44">
-        <v>0.1155906851309398</v>
+        <v>-0.001971911470914952</v>
       </c>
       <c r="H44">
-        <v>0.04193930386586171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.02483624433808684</v>
+      </c>
+      <c r="I44">
+        <v>-0.03761808186400211</v>
+      </c>
+      <c r="J44">
+        <v>0.02663608502587915</v>
+      </c>
+      <c r="K44">
+        <v>0.0295601554563177</v>
+      </c>
+      <c r="L44">
+        <v>0.03212036165741064</v>
+      </c>
+      <c r="M44">
+        <v>-0.07938035552404253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02787081920010313</v>
+        <v>-0.03443499523591719</v>
       </c>
       <c r="C46">
-        <v>-0.04320792021344487</v>
+        <v>-0.03971501339431803</v>
       </c>
       <c r="D46">
-        <v>-0.01466724045954694</v>
+        <v>0.03739643938916758</v>
       </c>
       <c r="E46">
-        <v>-0.04219889129146871</v>
+        <v>0.04515026272811667</v>
       </c>
       <c r="F46">
-        <v>-0.01024564145174649</v>
+        <v>0.0520873247582019</v>
       </c>
       <c r="G46">
-        <v>-0.0004210888118795973</v>
+        <v>0.003818420930575358</v>
       </c>
       <c r="H46">
-        <v>0.02671098702057773</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.0002542980130017821</v>
+      </c>
+      <c r="I46">
+        <v>-0.0308641698683292</v>
+      </c>
+      <c r="J46">
+        <v>-0.01838102896779429</v>
+      </c>
+      <c r="K46">
+        <v>0.1158097722549004</v>
+      </c>
+      <c r="L46">
+        <v>-0.03394943005739642</v>
+      </c>
+      <c r="M46">
+        <v>0.03390734595965873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02648255144653396</v>
+        <v>-0.04124824838117468</v>
       </c>
       <c r="C47">
-        <v>-0.007369573585305557</v>
+        <v>-0.02833790555241441</v>
       </c>
       <c r="D47">
-        <v>-0.002162263342833484</v>
+        <v>0.01650451080188287</v>
       </c>
       <c r="E47">
-        <v>-0.05708716736979475</v>
+        <v>0.01074474964574581</v>
       </c>
       <c r="F47">
-        <v>-0.01357179679441912</v>
+        <v>0.03554248333530343</v>
       </c>
       <c r="G47">
-        <v>-0.01528717865758891</v>
+        <v>-0.006163439602933141</v>
       </c>
       <c r="H47">
-        <v>0.04071948671616495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.009461678049056852</v>
+      </c>
+      <c r="I47">
+        <v>0.02552681501052696</v>
+      </c>
+      <c r="J47">
+        <v>-0.007352092081950638</v>
+      </c>
+      <c r="K47">
+        <v>0.05027937235663928</v>
+      </c>
+      <c r="L47">
+        <v>0.006584381369679154</v>
+      </c>
+      <c r="M47">
+        <v>0.05081753503757513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03734568976375403</v>
+        <v>-0.04267141177122492</v>
       </c>
       <c r="C48">
-        <v>-0.02442289679083269</v>
+        <v>-0.02064153797370316</v>
       </c>
       <c r="D48">
-        <v>0.002133849194875981</v>
+        <v>0.008996961215072131</v>
       </c>
       <c r="E48">
-        <v>-0.05223408655298108</v>
+        <v>0.006105212791373885</v>
       </c>
       <c r="F48">
-        <v>-0.03394774801861055</v>
+        <v>0.07270765631420056</v>
       </c>
       <c r="G48">
-        <v>-0.01388015698769943</v>
+        <v>0.02524321171829241</v>
       </c>
       <c r="H48">
-        <v>0.01054173329852701</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.02616808064302766</v>
+      </c>
+      <c r="I48">
+        <v>0.008646880790988397</v>
+      </c>
+      <c r="J48">
+        <v>-0.000918610100398729</v>
+      </c>
+      <c r="K48">
+        <v>0.0392912990620303</v>
+      </c>
+      <c r="L48">
+        <v>-0.04089483315598431</v>
+      </c>
+      <c r="M48">
+        <v>0.05350200395255926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2194228656097513</v>
+        <v>-0.2246454788912408</v>
       </c>
       <c r="C49">
-        <v>-0.1106856501057561</v>
+        <v>-0.07083419987501217</v>
       </c>
       <c r="D49">
-        <v>-0.04114531202127183</v>
+        <v>-0.05327148264470745</v>
       </c>
       <c r="E49">
-        <v>0.03147608341697524</v>
+        <v>0.06741362560822914</v>
       </c>
       <c r="F49">
-        <v>0.1905834638692785</v>
+        <v>-0.2394667579866727</v>
       </c>
       <c r="G49">
-        <v>0.02568974461369754</v>
+        <v>0.1108694274155342</v>
       </c>
       <c r="H49">
-        <v>-0.09826928721376915</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1703734604360074</v>
+      </c>
+      <c r="I49">
+        <v>-0.1085331011079211</v>
+      </c>
+      <c r="J49">
+        <v>0.001668981267176623</v>
+      </c>
+      <c r="K49">
+        <v>-0.1517649347850449</v>
+      </c>
+      <c r="L49">
+        <v>-0.01274017742737795</v>
+      </c>
+      <c r="M49">
+        <v>0.07784889489184658</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05538402028455167</v>
+        <v>-0.04686208373411505</v>
       </c>
       <c r="C50">
-        <v>-0.0244253229894845</v>
+        <v>-0.04023392199371585</v>
       </c>
       <c r="D50">
-        <v>0.004151413467005515</v>
+        <v>5.15057530152862e-05</v>
       </c>
       <c r="E50">
-        <v>-0.02186306399430499</v>
+        <v>-0.009250972727159622</v>
       </c>
       <c r="F50">
-        <v>-0.05506035245207595</v>
+        <v>0.04984535892442191</v>
       </c>
       <c r="G50">
-        <v>-0.0451924722691074</v>
+        <v>-0.03201700707815076</v>
       </c>
       <c r="H50">
-        <v>0.04655628805519796</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.02893736541982114</v>
+      </c>
+      <c r="I50">
+        <v>0.007758938544011759</v>
+      </c>
+      <c r="J50">
+        <v>-0.02769753970168676</v>
+      </c>
+      <c r="K50">
+        <v>0.0446195086534578</v>
+      </c>
+      <c r="L50">
+        <v>-0.02725468758141804</v>
+      </c>
+      <c r="M50">
+        <v>-0.003942396302281865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02975212653026128</v>
+        <v>-0.02636533115541883</v>
       </c>
       <c r="C51">
-        <v>-0.01569744628672139</v>
+        <v>-0.005446985582178121</v>
       </c>
       <c r="D51">
-        <v>-0.005053039900125902</v>
+        <v>-0.001393027561439115</v>
       </c>
       <c r="E51">
-        <v>0.001352359883687137</v>
+        <v>0.01750328475305612</v>
       </c>
       <c r="F51">
-        <v>-0.01554797809728923</v>
+        <v>-0.02484873696529441</v>
       </c>
       <c r="G51">
-        <v>0.01191567611153201</v>
+        <v>0.0001702417738950057</v>
       </c>
       <c r="H51">
-        <v>-0.02260775797403712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.005109380497675866</v>
+      </c>
+      <c r="I51">
+        <v>-0.009645968458652322</v>
+      </c>
+      <c r="J51">
+        <v>0.0397864265047094</v>
+      </c>
+      <c r="K51">
+        <v>-0.05990117694591193</v>
+      </c>
+      <c r="L51">
+        <v>-0.02301787291712248</v>
+      </c>
+      <c r="M51">
+        <v>-0.001355822725575551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.03839619939753986</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.01320785745645454</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01681778283196086</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.0022331729101691</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01869697885829534</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.05434613355050981</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.01031618078582458</v>
+      </c>
+      <c r="I52">
+        <v>-0.006779973506068605</v>
+      </c>
+      <c r="J52">
+        <v>-0.0330327790876935</v>
+      </c>
+      <c r="K52">
+        <v>-0.01713084190771704</v>
+      </c>
+      <c r="L52">
+        <v>-0.02350570111418968</v>
+      </c>
+      <c r="M52">
+        <v>-0.04645634157728293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1694973260139493</v>
+        <v>-0.1610820547354338</v>
       </c>
       <c r="C53">
-        <v>-0.000485868676073071</v>
+        <v>-0.04691310680499262</v>
       </c>
       <c r="D53">
-        <v>-0.02454951537372118</v>
+        <v>-0.01638183240271397</v>
       </c>
       <c r="E53">
-        <v>0.1150619647714105</v>
+        <v>-0.007200016660473894</v>
       </c>
       <c r="F53">
-        <v>-0.2129080981669366</v>
+        <v>-0.06558345189924213</v>
       </c>
       <c r="G53">
-        <v>-0.03291266651584916</v>
+        <v>-0.1781586098498293</v>
       </c>
       <c r="H53">
-        <v>0.08811143110150484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1883882120781725</v>
+      </c>
+      <c r="I53">
+        <v>-0.07008493042723067</v>
+      </c>
+      <c r="J53">
+        <v>-0.1187028251455751</v>
+      </c>
+      <c r="K53">
+        <v>0.009152470905352466</v>
+      </c>
+      <c r="L53">
+        <v>0.005069092609631601</v>
+      </c>
+      <c r="M53">
+        <v>-0.07877569022840795</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04931501144993752</v>
+        <v>-0.05497035069830716</v>
       </c>
       <c r="C54">
-        <v>-0.02971505693224759</v>
+        <v>-0.0430527479703252</v>
       </c>
       <c r="D54">
-        <v>-0.02719022544840572</v>
+        <v>0.01640738981767357</v>
       </c>
       <c r="E54">
-        <v>-0.0534572655935429</v>
+        <v>0.01626053347934472</v>
       </c>
       <c r="F54">
-        <v>-0.02726193669525507</v>
+        <v>0.1360287025344109</v>
       </c>
       <c r="G54">
-        <v>0.008004371513674219</v>
+        <v>0.03296130849362062</v>
       </c>
       <c r="H54">
-        <v>0.0489795363730384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.03238315821518428</v>
+      </c>
+      <c r="I54">
+        <v>0.0451499048960772</v>
+      </c>
+      <c r="J54">
+        <v>0.01127234199111596</v>
+      </c>
+      <c r="K54">
+        <v>0.1353693488038016</v>
+      </c>
+      <c r="L54">
+        <v>-0.01832792908338463</v>
+      </c>
+      <c r="M54">
+        <v>0.04218030596101355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09047565986257919</v>
+        <v>-0.08534932471105378</v>
       </c>
       <c r="C55">
-        <v>-0.00109788098577494</v>
+        <v>-0.03794285055694212</v>
       </c>
       <c r="D55">
-        <v>-0.02001078451215303</v>
+        <v>-0.02992885083393333</v>
       </c>
       <c r="E55">
-        <v>0.04315069790508975</v>
+        <v>0.005469826677073995</v>
       </c>
       <c r="F55">
-        <v>-0.1762299013975778</v>
+        <v>0.001053753658913861</v>
       </c>
       <c r="G55">
-        <v>-0.03848473709358178</v>
+        <v>-0.09462734751935224</v>
       </c>
       <c r="H55">
-        <v>0.1048684179272859</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.1405429631271476</v>
+      </c>
+      <c r="I55">
+        <v>-0.046318747392936</v>
+      </c>
+      <c r="J55">
+        <v>-0.06020959382047258</v>
+      </c>
+      <c r="K55">
+        <v>0.009468190643378878</v>
+      </c>
+      <c r="L55">
+        <v>0.002980334959432597</v>
+      </c>
+      <c r="M55">
+        <v>0.02698888931347616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1636283085048336</v>
+        <v>-0.1515447097002627</v>
       </c>
       <c r="C56">
-        <v>-0.005665014705479751</v>
+        <v>-0.06619326962726249</v>
       </c>
       <c r="D56">
-        <v>-0.02341113338456015</v>
+        <v>-0.03552604255089653</v>
       </c>
       <c r="E56">
-        <v>0.1085122524504059</v>
+        <v>0.02094417869783499</v>
       </c>
       <c r="F56">
-        <v>-0.2123245345963179</v>
+        <v>-0.04104914322535409</v>
       </c>
       <c r="G56">
-        <v>-0.06751106030492186</v>
+        <v>-0.1657322779168159</v>
       </c>
       <c r="H56">
-        <v>0.06249910939919326</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1750068068183762</v>
+      </c>
+      <c r="I56">
+        <v>-0.07385909586988845</v>
+      </c>
+      <c r="J56">
+        <v>-0.09959672317770722</v>
+      </c>
+      <c r="K56">
+        <v>-0.004030521854105123</v>
+      </c>
+      <c r="L56">
+        <v>0.05120529250135844</v>
+      </c>
+      <c r="M56">
+        <v>-0.02770415378604537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02874296863132095</v>
+        <v>-0.03883290995186439</v>
       </c>
       <c r="C58">
-        <v>-0.05120141888033895</v>
+        <v>-0.03554896675471313</v>
       </c>
       <c r="D58">
-        <v>0.03221932533468243</v>
+        <v>0.08243169759752211</v>
       </c>
       <c r="E58">
-        <v>-0.4073982718258411</v>
+        <v>0.02042400811462894</v>
       </c>
       <c r="F58">
-        <v>0.3019932751623941</v>
+        <v>0.03888947421360169</v>
       </c>
       <c r="G58">
-        <v>-0.1916607554512193</v>
+        <v>-0.004702013468067271</v>
       </c>
       <c r="H58">
-        <v>0.1843520877468734</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1396972555544541</v>
+      </c>
+      <c r="I58">
+        <v>0.05659157837580685</v>
+      </c>
+      <c r="J58">
+        <v>0.1752622705307122</v>
+      </c>
+      <c r="K58">
+        <v>-0.06958897766042464</v>
+      </c>
+      <c r="L58">
+        <v>-0.4572820246127656</v>
+      </c>
+      <c r="M58">
+        <v>0.004932278769032979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2079953232337611</v>
+        <v>-0.2268861653199197</v>
       </c>
       <c r="C59">
-        <v>0.40181410137748</v>
+        <v>0.2946368336419921</v>
       </c>
       <c r="D59">
-        <v>-0.08033266164153002</v>
+        <v>-0.03985415225297281</v>
       </c>
       <c r="E59">
-        <v>0.0001934279228628783</v>
+        <v>-0.004564014315603181</v>
       </c>
       <c r="F59">
-        <v>-0.05751907865438586</v>
+        <v>0.02258531769902079</v>
       </c>
       <c r="G59">
-        <v>0.07344639221461155</v>
+        <v>-0.02119880215918956</v>
       </c>
       <c r="H59">
-        <v>-0.01357609642214338</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.1121104106551284</v>
+      </c>
+      <c r="I59">
+        <v>-0.03087140381709486</v>
+      </c>
+      <c r="J59">
+        <v>0.03733968496435031</v>
+      </c>
+      <c r="K59">
+        <v>-0.08381307336056906</v>
+      </c>
+      <c r="L59">
+        <v>0.07455036674938113</v>
+      </c>
+      <c r="M59">
+        <v>-0.05609234242422634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2605441412926138</v>
+        <v>-0.2401012213308678</v>
       </c>
       <c r="C60">
-        <v>-0.07048559120220066</v>
+        <v>-0.1216617713530367</v>
       </c>
       <c r="D60">
-        <v>-0.08365972483959538</v>
+        <v>-0.06577326414580252</v>
       </c>
       <c r="E60">
-        <v>0.02327475985542676</v>
+        <v>0.05424482194642576</v>
       </c>
       <c r="F60">
-        <v>0.08330281605018997</v>
+        <v>-0.1402256315047955</v>
       </c>
       <c r="G60">
-        <v>-0.04423147906192068</v>
+        <v>0.03494869044104459</v>
       </c>
       <c r="H60">
-        <v>-0.0709826401385479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.07535442846932136</v>
+      </c>
+      <c r="I60">
+        <v>0.07457650688585293</v>
+      </c>
+      <c r="J60">
+        <v>-0.1606792091608575</v>
+      </c>
+      <c r="K60">
+        <v>-0.1792969658856036</v>
+      </c>
+      <c r="L60">
+        <v>0.0005285879011527155</v>
+      </c>
+      <c r="M60">
+        <v>-0.06323293641467555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.09021311177711411</v>
+        <v>-0.10296673824526</v>
       </c>
       <c r="C61">
-        <v>-0.0508679088031723</v>
+        <v>-0.06528390458730164</v>
       </c>
       <c r="D61">
-        <v>-0.004257625446116709</v>
+        <v>-0.04899801773704641</v>
       </c>
       <c r="E61">
-        <v>0.002145661362844309</v>
+        <v>0.007291715257499582</v>
       </c>
       <c r="F61">
-        <v>-0.02170899986722662</v>
+        <v>0.1425760344493441</v>
       </c>
       <c r="G61">
-        <v>0.04711634454237934</v>
+        <v>-0.08977915478116316</v>
       </c>
       <c r="H61">
-        <v>-0.04997038420401904</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.03520541345184283</v>
+      </c>
+      <c r="I61">
+        <v>-0.0532192925802767</v>
+      </c>
+      <c r="J61">
+        <v>0.08455558093399493</v>
+      </c>
+      <c r="K61">
+        <v>-0.01808474957237704</v>
+      </c>
+      <c r="L61">
+        <v>-0.04370282678991762</v>
+      </c>
+      <c r="M61">
+        <v>0.01736115592100283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1553587899214235</v>
+        <v>-0.1427096534749893</v>
       </c>
       <c r="C62">
-        <v>-0.03229895100521155</v>
+        <v>-0.06967743354545525</v>
       </c>
       <c r="D62">
-        <v>0.01970181204949522</v>
+        <v>-0.03288745189471048</v>
       </c>
       <c r="E62">
-        <v>0.1712369764376594</v>
+        <v>-0.0236449441353728</v>
       </c>
       <c r="F62">
-        <v>-0.2035671018183461</v>
+        <v>-0.04930674364472852</v>
       </c>
       <c r="G62">
-        <v>-0.0004285836477044802</v>
+        <v>-0.1181300694533659</v>
       </c>
       <c r="H62">
-        <v>0.05332639201401031</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1611754802979035</v>
+      </c>
+      <c r="I62">
+        <v>-0.09311820494313545</v>
+      </c>
+      <c r="J62">
+        <v>-0.1376590306581461</v>
+      </c>
+      <c r="K62">
+        <v>0.05107602424950049</v>
+      </c>
+      <c r="L62">
+        <v>0.06570711000873991</v>
+      </c>
+      <c r="M62">
+        <v>0.05301681397380427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03664288257957971</v>
+        <v>-0.04582424920500766</v>
       </c>
       <c r="C63">
-        <v>-0.03008453515254193</v>
+        <v>-0.029070124188942</v>
       </c>
       <c r="D63">
-        <v>0.001421120641051519</v>
+        <v>-0.003930735763545547</v>
       </c>
       <c r="E63">
-        <v>0.0006878641063055647</v>
+        <v>-0.0141770361984415</v>
       </c>
       <c r="F63">
-        <v>-0.01143200015103331</v>
+        <v>0.07329369700671237</v>
       </c>
       <c r="G63">
-        <v>-0.006550053445119168</v>
+        <v>0.002348909858119482</v>
       </c>
       <c r="H63">
-        <v>0.0659131682065657</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.01251697517170118</v>
+      </c>
+      <c r="I63">
+        <v>-0.004132316115720452</v>
+      </c>
+      <c r="J63">
+        <v>0.003515329409726722</v>
+      </c>
+      <c r="K63">
+        <v>0.02909090227018007</v>
+      </c>
+      <c r="L63">
+        <v>-0.04650886712663985</v>
+      </c>
+      <c r="M63">
+        <v>0.03865097024120171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1100952311335687</v>
+        <v>-0.09911229695453777</v>
       </c>
       <c r="C64">
-        <v>-0.03378268684216516</v>
+        <v>-0.04423138651223349</v>
       </c>
       <c r="D64">
-        <v>-0.04365407492380089</v>
+        <v>0.003600546028057201</v>
       </c>
       <c r="E64">
-        <v>-0.04076141963310569</v>
+        <v>0.0450264961675313</v>
       </c>
       <c r="F64">
-        <v>0.01540262815232078</v>
+        <v>0.07693674601844448</v>
       </c>
       <c r="G64">
-        <v>0.06558856904982423</v>
+        <v>-0.02642211983964378</v>
       </c>
       <c r="H64">
-        <v>-0.02261007678982158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.08543370975606862</v>
+      </c>
+      <c r="I64">
+        <v>0.02562978624015742</v>
+      </c>
+      <c r="J64">
+        <v>0.01844499576846914</v>
+      </c>
+      <c r="K64">
+        <v>-0.006736441957592449</v>
+      </c>
+      <c r="L64">
+        <v>0.00122399667871681</v>
+      </c>
+      <c r="M64">
+        <v>-0.03045617462323161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1244971241656988</v>
+        <v>-0.1250147234736917</v>
       </c>
       <c r="C65">
-        <v>-0.03983803579905212</v>
+        <v>-0.05055954910485637</v>
       </c>
       <c r="D65">
-        <v>-0.02797985568127808</v>
+        <v>-0.01596498543334198</v>
       </c>
       <c r="E65">
-        <v>-0.0676267649183543</v>
+        <v>-0.03572256775883031</v>
       </c>
       <c r="F65">
-        <v>0.2463663875494919</v>
+        <v>-0.02813401756957705</v>
       </c>
       <c r="G65">
-        <v>-0.2965269494104815</v>
+        <v>0.1160335440925652</v>
       </c>
       <c r="H65">
-        <v>0.5646536920736293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.04804471798482148</v>
+      </c>
+      <c r="I65">
+        <v>0.4883174873890339</v>
+      </c>
+      <c r="J65">
+        <v>-0.4702765375694603</v>
+      </c>
+      <c r="K65">
+        <v>0.0501189628808795</v>
+      </c>
+      <c r="L65">
+        <v>-0.2342389158014719</v>
+      </c>
+      <c r="M65">
+        <v>-0.01772417024186786</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1611267751801266</v>
+        <v>-0.1342545043920431</v>
       </c>
       <c r="C66">
-        <v>-0.1045684502947871</v>
+        <v>-0.1276218199090209</v>
       </c>
       <c r="D66">
-        <v>0.0113569875491267</v>
+        <v>-0.1013285808026588</v>
       </c>
       <c r="E66">
-        <v>0.008723214381982453</v>
+        <v>-0.03383621286657969</v>
       </c>
       <c r="F66">
-        <v>-0.04119384300704339</v>
+        <v>0.1669735201415486</v>
       </c>
       <c r="G66">
-        <v>0.2431086369408072</v>
+        <v>-0.1142221697275588</v>
       </c>
       <c r="H66">
-        <v>-0.1010894564722972</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1206123957830695</v>
+      </c>
+      <c r="I66">
+        <v>-0.1094697440079928</v>
+      </c>
+      <c r="J66">
+        <v>0.1145811999101205</v>
+      </c>
+      <c r="K66">
+        <v>-0.1702215137654366</v>
+      </c>
+      <c r="L66">
+        <v>-0.02817565489123654</v>
+      </c>
+      <c r="M66">
+        <v>-0.1088926177688838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.09014024730512932</v>
+        <v>-0.07462931070258542</v>
       </c>
       <c r="C67">
-        <v>-0.05497167388758813</v>
+        <v>-0.05549578314150308</v>
       </c>
       <c r="D67">
-        <v>-0.02516893552992327</v>
+        <v>0.01720449585002199</v>
       </c>
       <c r="E67">
-        <v>-5.649522617257376e-05</v>
+        <v>0.02836378729296773</v>
       </c>
       <c r="F67">
-        <v>-0.03252199720025572</v>
+        <v>-0.04760751740671681</v>
       </c>
       <c r="G67">
-        <v>0.03235487390628562</v>
+        <v>-0.063901530502295</v>
       </c>
       <c r="H67">
-        <v>-0.04021022586998525</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.02094267663040949</v>
+      </c>
+      <c r="I67">
+        <v>-0.01105230878442163</v>
+      </c>
+      <c r="J67">
+        <v>0.0293811554428722</v>
+      </c>
+      <c r="K67">
+        <v>0.01022901491290162</v>
+      </c>
+      <c r="L67">
+        <v>0.1635610714503512</v>
+      </c>
+      <c r="M67">
+        <v>-0.04814852012542035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.08222651626595127</v>
+        <v>-0.122934649654022</v>
       </c>
       <c r="C68">
-        <v>0.2878242713836085</v>
+        <v>0.2723019934780922</v>
       </c>
       <c r="D68">
-        <v>-0.0272679362145062</v>
+        <v>-0.007703808648988511</v>
       </c>
       <c r="E68">
-        <v>-0.02976288484155919</v>
+        <v>-0.006162737129669148</v>
       </c>
       <c r="F68">
-        <v>-0.02799953562549018</v>
+        <v>0.04012047582789019</v>
       </c>
       <c r="G68">
-        <v>-0.04120775097523422</v>
+        <v>-0.02476784032498421</v>
       </c>
       <c r="H68">
-        <v>0.03019399018241478</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.006276989267963663</v>
+      </c>
+      <c r="I68">
+        <v>0.02716451879663894</v>
+      </c>
+      <c r="J68">
+        <v>-0.03563912016552344</v>
+      </c>
+      <c r="K68">
+        <v>0.01672398897315465</v>
+      </c>
+      <c r="L68">
+        <v>-0.04890737270690916</v>
+      </c>
+      <c r="M68">
+        <v>0.01260484957970825</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03339200453852723</v>
+        <v>-0.04530849796416817</v>
       </c>
       <c r="C69">
-        <v>-0.02015076854985487</v>
+        <v>-0.02115425502746849</v>
       </c>
       <c r="D69">
-        <v>-0.003689771856636806</v>
+        <v>0.00563590441564594</v>
       </c>
       <c r="E69">
-        <v>-0.007405521562976871</v>
+        <v>0.001710827980187595</v>
       </c>
       <c r="F69">
-        <v>-0.03203507198567952</v>
+        <v>0.02234829196195645</v>
       </c>
       <c r="G69">
-        <v>0.03505105002821435</v>
+        <v>-0.03443366379046312</v>
       </c>
       <c r="H69">
-        <v>0.04791994941746826</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.0001775751951673806</v>
+      </c>
+      <c r="I69">
+        <v>0.005463026152337457</v>
+      </c>
+      <c r="J69">
+        <v>0.003411874285568194</v>
+      </c>
+      <c r="K69">
+        <v>0.01592717365723601</v>
+      </c>
+      <c r="L69">
+        <v>0.01352728604417328</v>
+      </c>
+      <c r="M69">
+        <v>0.05531684240328492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05834351054418208</v>
+        <v>-0.05347634300051228</v>
       </c>
       <c r="C70">
-        <v>-0.01201681489246411</v>
+        <v>-0.02738704782366418</v>
       </c>
       <c r="D70">
-        <v>-0.03663705311836601</v>
+        <v>-0.02765744374052928</v>
       </c>
       <c r="E70">
-        <v>0.003214791940846186</v>
+        <v>0.02357070596944878</v>
       </c>
       <c r="F70">
-        <v>0.09481689859134418</v>
+        <v>0.03566852838300641</v>
       </c>
       <c r="G70">
-        <v>-0.03280127871375887</v>
+        <v>0.02618544941163375</v>
       </c>
       <c r="H70">
-        <v>-0.1022464508262165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02536038279672731</v>
+      </c>
+      <c r="I70">
+        <v>0.09250411157324109</v>
+      </c>
+      <c r="J70">
+        <v>0.08200845072488559</v>
+      </c>
+      <c r="K70">
+        <v>0.3342734525691811</v>
+      </c>
+      <c r="L70">
+        <v>0.1757387010487644</v>
+      </c>
+      <c r="M70">
+        <v>-0.08023132538082126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.08757581560545388</v>
+        <v>-0.1383663454832612</v>
       </c>
       <c r="C71">
-        <v>0.2836161627813701</v>
+        <v>0.2801356271724679</v>
       </c>
       <c r="D71">
-        <v>-0.05816705139726942</v>
+        <v>-0.01186134117258717</v>
       </c>
       <c r="E71">
-        <v>-0.01619318672554865</v>
+        <v>0.01537319793339378</v>
       </c>
       <c r="F71">
-        <v>0.006798997779384002</v>
+        <v>0.03242487887518499</v>
       </c>
       <c r="G71">
-        <v>-0.01850984219375071</v>
+        <v>-0.0345510043757711</v>
       </c>
       <c r="H71">
-        <v>-0.002652411974000424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02015466276723051</v>
+      </c>
+      <c r="I71">
+        <v>0.01227747588406251</v>
+      </c>
+      <c r="J71">
+        <v>-0.01031257878354507</v>
+      </c>
+      <c r="K71">
+        <v>-0.004661198823229771</v>
+      </c>
+      <c r="L71">
+        <v>-0.02818791330778798</v>
+      </c>
+      <c r="M71">
+        <v>0.01078942429019802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1795785736635335</v>
+        <v>-0.1484151423758122</v>
       </c>
       <c r="C72">
-        <v>-0.0009206381412336849</v>
+        <v>-0.02762116507141401</v>
       </c>
       <c r="D72">
-        <v>0.2382328881215268</v>
+        <v>0.001787899207427304</v>
       </c>
       <c r="E72">
-        <v>0.04344705874454063</v>
+        <v>-0.1678601355830161</v>
       </c>
       <c r="F72">
-        <v>-0.03464931812945002</v>
+        <v>0.02092915375168777</v>
       </c>
       <c r="G72">
-        <v>0.04083282740988975</v>
+        <v>-0.04007624682269052</v>
       </c>
       <c r="H72">
-        <v>0.1627763605329591</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.02204665832440044</v>
+      </c>
+      <c r="I72">
+        <v>0.02811682424643468</v>
+      </c>
+      <c r="J72">
+        <v>-0.1504924614803939</v>
+      </c>
+      <c r="K72">
+        <v>-0.0709170923445139</v>
+      </c>
+      <c r="L72">
+        <v>0.01965691644707734</v>
+      </c>
+      <c r="M72">
+        <v>-0.02826259887579393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2960286995559511</v>
+        <v>-0.243502048849521</v>
       </c>
       <c r="C73">
-        <v>-0.1764185520556501</v>
+        <v>-0.1505192220928257</v>
       </c>
       <c r="D73">
-        <v>-0.09151831339243595</v>
+        <v>-0.1385574028640835</v>
       </c>
       <c r="E73">
-        <v>0.04823515994102646</v>
+        <v>0.1151790213680342</v>
       </c>
       <c r="F73">
-        <v>0.2418818138865859</v>
+        <v>-0.4748278731721223</v>
       </c>
       <c r="G73">
-        <v>-0.109313648414959</v>
+        <v>0.01735811426766189</v>
       </c>
       <c r="H73">
-        <v>-0.03337361068710682</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.3072550112436465</v>
+      </c>
+      <c r="I73">
+        <v>-0.0117803406172763</v>
+      </c>
+      <c r="J73">
+        <v>0.1413624937213588</v>
+      </c>
+      <c r="K73">
+        <v>-0.2563455678369309</v>
+      </c>
+      <c r="L73">
+        <v>-0.09757263234401303</v>
+      </c>
+      <c r="M73">
+        <v>-0.1159914378592932</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09516930801476875</v>
+        <v>-0.1001754015952344</v>
       </c>
       <c r="C74">
-        <v>-0.0348815344460242</v>
+        <v>-0.07174463472968146</v>
       </c>
       <c r="D74">
-        <v>-0.004636299820128468</v>
+        <v>-0.01269813063197259</v>
       </c>
       <c r="E74">
-        <v>0.04011028347560385</v>
+        <v>-0.009329218691720364</v>
       </c>
       <c r="F74">
-        <v>-0.0990187795002658</v>
+        <v>-0.03851197368123956</v>
       </c>
       <c r="G74">
-        <v>-0.06057877674242406</v>
+        <v>-0.138999579391736</v>
       </c>
       <c r="H74">
-        <v>0.05156757625201346</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.05521034724839918</v>
+      </c>
+      <c r="I74">
+        <v>-0.0388105940285093</v>
+      </c>
+      <c r="J74">
+        <v>-0.04566511461841587</v>
+      </c>
+      <c r="K74">
+        <v>0.005117650775272805</v>
+      </c>
+      <c r="L74">
+        <v>-0.008405040454663549</v>
+      </c>
+      <c r="M74">
+        <v>0.004550597617732288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09024088063728673</v>
+        <v>-0.09674954848753557</v>
       </c>
       <c r="C75">
-        <v>-0.01438437427386361</v>
+        <v>-0.05170881235461113</v>
       </c>
       <c r="D75">
-        <v>-0.002616988291203942</v>
+        <v>-0.008966641675777045</v>
       </c>
       <c r="E75">
-        <v>0.05587042662390457</v>
+        <v>-0.004201921651501421</v>
       </c>
       <c r="F75">
-        <v>-0.1099695458725543</v>
+        <v>-0.03159177156932646</v>
       </c>
       <c r="G75">
-        <v>-0.04816631347251161</v>
+        <v>-0.06726558325950902</v>
       </c>
       <c r="H75">
-        <v>0.01254257303641801</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.113929507175029</v>
+      </c>
+      <c r="I75">
+        <v>-0.02512754347029719</v>
+      </c>
+      <c r="J75">
+        <v>-0.04700625530546333</v>
+      </c>
+      <c r="K75">
+        <v>-0.007862179921440702</v>
+      </c>
+      <c r="L75">
+        <v>0.01813452887389591</v>
+      </c>
+      <c r="M75">
+        <v>0.05120331770916417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1326389911478597</v>
+        <v>-0.07841972454697073</v>
       </c>
       <c r="C76">
-        <v>-0.02757204919456369</v>
+        <v>-0.05699506301063365</v>
       </c>
       <c r="D76">
-        <v>-0.02045333764393186</v>
+        <v>-0.004533228012008754</v>
       </c>
       <c r="E76">
-        <v>0.05164452260353048</v>
+        <v>0.01178947382878295</v>
       </c>
       <c r="F76">
-        <v>-0.212796832077132</v>
+        <v>-0.06311252026728556</v>
       </c>
       <c r="G76">
-        <v>-0.07681656172854948</v>
+        <v>-0.1075450226988179</v>
       </c>
       <c r="H76">
-        <v>0.07676668224901889</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1711266507585138</v>
+      </c>
+      <c r="I76">
+        <v>-0.05732862446575827</v>
+      </c>
+      <c r="J76">
+        <v>-0.02486288704509478</v>
+      </c>
+      <c r="K76">
+        <v>0.03009330520107973</v>
+      </c>
+      <c r="L76">
+        <v>0.01075966062550267</v>
+      </c>
+      <c r="M76">
+        <v>-0.01638910555040021</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07459456624294242</v>
+        <v>-0.06954474543078436</v>
       </c>
       <c r="C77">
-        <v>-0.03237743126085955</v>
+        <v>-0.02482891558497922</v>
       </c>
       <c r="D77">
-        <v>-0.03345321894655668</v>
+        <v>-0.02656099191744178</v>
       </c>
       <c r="E77">
-        <v>-0.1085609975597488</v>
+        <v>0.0500367496293547</v>
       </c>
       <c r="F77">
-        <v>0.1887589482318946</v>
+        <v>0.2391989754795288</v>
       </c>
       <c r="G77">
-        <v>0.6614883039566087</v>
+        <v>0.06842452840304002</v>
       </c>
       <c r="H77">
-        <v>0.08970402663972757</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.1797127867314796</v>
+      </c>
+      <c r="I77">
+        <v>0.2420818123258105</v>
+      </c>
+      <c r="J77">
+        <v>-0.02063753564797408</v>
+      </c>
+      <c r="K77">
+        <v>-0.3299050454898934</v>
+      </c>
+      <c r="L77">
+        <v>0.6303592922083336</v>
+      </c>
+      <c r="M77">
+        <v>-0.08134648199115434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1636093712195314</v>
+        <v>-0.1522091830630481</v>
       </c>
       <c r="C78">
-        <v>-0.09328066640540249</v>
+        <v>-0.1135488202995015</v>
       </c>
       <c r="D78">
-        <v>-0.04000855414458526</v>
+        <v>0.190073264144805</v>
       </c>
       <c r="E78">
-        <v>-0.2010354078379049</v>
+        <v>0.1042173116629597</v>
       </c>
       <c r="F78">
-        <v>-0.01457917892431491</v>
+        <v>0.1308230145738041</v>
       </c>
       <c r="G78">
-        <v>0.07710145889205078</v>
+        <v>0.5576260302328182</v>
       </c>
       <c r="H78">
-        <v>-0.02031594743103215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5577568206496771</v>
+      </c>
+      <c r="I78">
+        <v>0.0527455961692994</v>
+      </c>
+      <c r="J78">
+        <v>0.1980090044182508</v>
+      </c>
+      <c r="K78">
+        <v>-0.2946706295450103</v>
+      </c>
+      <c r="L78">
+        <v>-0.08347857447366185</v>
+      </c>
+      <c r="M78">
+        <v>-0.1917904804769467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1377663684796251</v>
+        <v>-0.1351236885585423</v>
       </c>
       <c r="C79">
-        <v>-0.03590507722881969</v>
+        <v>-0.07535087997672268</v>
       </c>
       <c r="D79">
-        <v>-0.005067658252637425</v>
+        <v>-0.004566890054552923</v>
       </c>
       <c r="E79">
-        <v>0.07241114583189749</v>
+        <v>0.005910385264978286</v>
       </c>
       <c r="F79">
-        <v>-0.1629622536180973</v>
+        <v>-0.002506632929697939</v>
       </c>
       <c r="G79">
-        <v>-0.02700362964380973</v>
+        <v>-0.1240938988178742</v>
       </c>
       <c r="H79">
-        <v>0.04727335283303431</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.1156657820782612</v>
+      </c>
+      <c r="I79">
+        <v>-0.06828443362897645</v>
+      </c>
+      <c r="J79">
+        <v>-0.09870400345825552</v>
+      </c>
+      <c r="K79">
+        <v>0.006990660902176683</v>
+      </c>
+      <c r="L79">
+        <v>0.03192647429807838</v>
+      </c>
+      <c r="M79">
+        <v>0.05016789886010012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.03382860089146255</v>
+        <v>-0.0589994913120329</v>
       </c>
       <c r="C80">
-        <v>-0.007737303534395134</v>
+        <v>-0.03149862010645568</v>
       </c>
       <c r="D80">
-        <v>-0.0107566067372577</v>
+        <v>-0.07135454360293929</v>
       </c>
       <c r="E80">
-        <v>0.0406490313320883</v>
+        <v>-0.005576104437168101</v>
       </c>
       <c r="F80">
-        <v>0.02526580894778816</v>
+        <v>0.04117156072977423</v>
       </c>
       <c r="G80">
-        <v>-0.01593962955958376</v>
+        <v>0.004391242273190394</v>
       </c>
       <c r="H80">
-        <v>0.08242686290072755</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.006685837323907704</v>
+      </c>
+      <c r="I80">
+        <v>0.07787999060265331</v>
+      </c>
+      <c r="J80">
+        <v>0.05790689062233521</v>
+      </c>
+      <c r="K80">
+        <v>0.154243944794572</v>
+      </c>
+      <c r="L80">
+        <v>-0.1380724436517445</v>
+      </c>
+      <c r="M80">
+        <v>-0.009809650262199043</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1062582098978202</v>
+        <v>-0.1216998858299419</v>
       </c>
       <c r="C81">
-        <v>-0.0360206510845563</v>
+        <v>-0.06727810951232831</v>
       </c>
       <c r="D81">
-        <v>-0.01646252243555062</v>
+        <v>-0.002246657699875412</v>
       </c>
       <c r="E81">
-        <v>0.0779953875433221</v>
+        <v>0.0004600591826688715</v>
       </c>
       <c r="F81">
-        <v>-0.1274404555870842</v>
+        <v>0.01141322251608225</v>
       </c>
       <c r="G81">
-        <v>-0.01798639578021875</v>
+        <v>-0.08477912212349385</v>
       </c>
       <c r="H81">
-        <v>-0.005403856332153038</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.1024492403417162</v>
+      </c>
+      <c r="I81">
+        <v>-0.06846794358160323</v>
+      </c>
+      <c r="J81">
+        <v>-0.06662091472759125</v>
+      </c>
+      <c r="K81">
+        <v>-0.0004976876861535992</v>
+      </c>
+      <c r="L81">
+        <v>0.02338225377290356</v>
+      </c>
+      <c r="M81">
+        <v>0.07994171290055967</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1125201466557571</v>
+        <v>-0.1252567365048365</v>
       </c>
       <c r="C82">
-        <v>-0.0295330911453707</v>
+        <v>-0.05248769928358452</v>
       </c>
       <c r="D82">
-        <v>-0.0645184978505471</v>
+        <v>-0.02716175989872951</v>
       </c>
       <c r="E82">
-        <v>0.1053535584481642</v>
+        <v>0.004906307797899715</v>
       </c>
       <c r="F82">
-        <v>-0.227371878123146</v>
+        <v>-0.02109018394444081</v>
       </c>
       <c r="G82">
-        <v>-0.03291997390948755</v>
+        <v>-0.189782232676538</v>
       </c>
       <c r="H82">
-        <v>0.03933227517631025</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1435321820150827</v>
+      </c>
+      <c r="I82">
+        <v>-0.126875836935666</v>
+      </c>
+      <c r="J82">
+        <v>-0.0168436281976238</v>
+      </c>
+      <c r="K82">
+        <v>0.06902647403916559</v>
+      </c>
+      <c r="L82">
+        <v>0.04060089235088304</v>
+      </c>
+      <c r="M82">
+        <v>0.04956176042189405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.08407308882049176</v>
+        <v>-0.07550964609748559</v>
       </c>
       <c r="C83">
-        <v>-0.06761892947823173</v>
+        <v>-0.08023792953111225</v>
       </c>
       <c r="D83">
-        <v>-0.04844539209969582</v>
+        <v>-0.03206335620659466</v>
       </c>
       <c r="E83">
-        <v>-0.005081931878141581</v>
+        <v>-0.002137563075250547</v>
       </c>
       <c r="F83">
-        <v>0.04506228493481268</v>
+        <v>0.05336476784772921</v>
       </c>
       <c r="G83">
-        <v>0.0356264379608162</v>
+        <v>-0.0892150247027019</v>
       </c>
       <c r="H83">
-        <v>-0.04058599698977645</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.02893007820312998</v>
+      </c>
+      <c r="I83">
+        <v>0.08481837044401774</v>
+      </c>
+      <c r="J83">
+        <v>0.1210965728461379</v>
+      </c>
+      <c r="K83">
+        <v>0.1204316195578788</v>
+      </c>
+      <c r="L83">
+        <v>0.01766760103240614</v>
+      </c>
+      <c r="M83">
+        <v>-0.08621176184495356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05847654534475305</v>
+        <v>-0.05573655316941831</v>
       </c>
       <c r="C84">
-        <v>-0.04939156001171952</v>
+        <v>0.01665987135789407</v>
       </c>
       <c r="D84">
-        <v>0.0571974302690447</v>
+        <v>-0.001778800598761195</v>
       </c>
       <c r="E84">
-        <v>-0.01786365430401411</v>
+        <v>-0.01016886951304423</v>
       </c>
       <c r="F84">
-        <v>-0.06865742875249307</v>
+        <v>0.01907674091400404</v>
       </c>
       <c r="G84">
-        <v>-0.1422988656027471</v>
+        <v>0.1832992667377305</v>
       </c>
       <c r="H84">
-        <v>-0.04475769193938959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.09580321372910137</v>
+      </c>
+      <c r="I84">
+        <v>-0.2252388317510993</v>
+      </c>
+      <c r="J84">
+        <v>0.1052126701010743</v>
+      </c>
+      <c r="K84">
+        <v>0.1520269312253089</v>
+      </c>
+      <c r="L84">
+        <v>-0.152105479650721</v>
+      </c>
+      <c r="M84">
+        <v>-0.1764146169074166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.0881563604491357</v>
+        <v>-0.1111464793644637</v>
       </c>
       <c r="C85">
-        <v>-0.0314323079852333</v>
+        <v>-0.05098227619826589</v>
       </c>
       <c r="D85">
-        <v>-0.0382249438515397</v>
+        <v>-0.01453688143084606</v>
       </c>
       <c r="E85">
-        <v>0.0656744872397628</v>
+        <v>0.03555754852780934</v>
       </c>
       <c r="F85">
-        <v>-0.1730656936914091</v>
+        <v>-0.00535545617321455</v>
       </c>
       <c r="G85">
-        <v>-0.006006959169765871</v>
+        <v>-0.1287930457014954</v>
       </c>
       <c r="H85">
-        <v>0.1078594420935614</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1190350319224159</v>
+      </c>
+      <c r="I85">
+        <v>-0.0671560203846332</v>
+      </c>
+      <c r="J85">
+        <v>-0.1144390132124491</v>
+      </c>
+      <c r="K85">
+        <v>-0.01093917764919397</v>
+      </c>
+      <c r="L85">
+        <v>0.03481083060610809</v>
+      </c>
+      <c r="M85">
+        <v>0.04913019245759858</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04498285914673087</v>
+        <v>-0.07386258291006834</v>
       </c>
       <c r="C86">
-        <v>-0.03684637082229807</v>
+        <v>-0.02356468105989046</v>
       </c>
       <c r="D86">
-        <v>-0.02866670412798831</v>
+        <v>0.01335758545493759</v>
       </c>
       <c r="E86">
-        <v>-0.02633576663465199</v>
+        <v>0.1469640374749604</v>
       </c>
       <c r="F86">
-        <v>0.02814800675780542</v>
+        <v>0.03216468801488762</v>
       </c>
       <c r="G86">
-        <v>0.0174986895845483</v>
+        <v>0.4092619093613489</v>
       </c>
       <c r="H86">
-        <v>0.1843210369012613</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.2062265274146001</v>
+      </c>
+      <c r="I86">
+        <v>-0.539665876744891</v>
+      </c>
+      <c r="J86">
+        <v>-0.4584246364987936</v>
+      </c>
+      <c r="K86">
+        <v>0.1882346601153211</v>
+      </c>
+      <c r="L86">
+        <v>0.06499353611781605</v>
+      </c>
+      <c r="M86">
+        <v>-0.1763060522822969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09232297231179218</v>
+        <v>-0.1091501204257945</v>
       </c>
       <c r="C87">
-        <v>-0.05830984637057481</v>
+        <v>-0.07466115839656765</v>
       </c>
       <c r="D87">
-        <v>-0.002985150859309873</v>
+        <v>0.02489687725039053</v>
       </c>
       <c r="E87">
-        <v>-0.0623494096148391</v>
+        <v>0.01037537131297472</v>
       </c>
       <c r="F87">
-        <v>0.007334262815995754</v>
+        <v>0.1271356543653273</v>
       </c>
       <c r="G87">
-        <v>0.1371375898957304</v>
+        <v>0.04250445410166721</v>
       </c>
       <c r="H87">
-        <v>0.01617563250921682</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.0967317254993276</v>
+      </c>
+      <c r="I87">
+        <v>0.07249666417098234</v>
+      </c>
+      <c r="J87">
+        <v>0.02270955582600107</v>
+      </c>
+      <c r="K87">
+        <v>0.04316751306344362</v>
+      </c>
+      <c r="L87">
+        <v>0.2126399598451565</v>
+      </c>
+      <c r="M87">
+        <v>0.1473089290105925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05619787286034573</v>
+        <v>-0.05884014145690682</v>
       </c>
       <c r="C88">
-        <v>-0.04005715568590999</v>
+        <v>-0.05587579085314147</v>
       </c>
       <c r="D88">
-        <v>-0.0222090559029551</v>
+        <v>-0.03153062221196827</v>
       </c>
       <c r="E88">
-        <v>-0.005514371312637528</v>
+        <v>0.003543461034870553</v>
       </c>
       <c r="F88">
-        <v>0.009030869873625188</v>
+        <v>0.04034220492700066</v>
       </c>
       <c r="G88">
-        <v>0.03286204378251405</v>
+        <v>-0.04069331736531951</v>
       </c>
       <c r="H88">
-        <v>-0.009305468270340518</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.0237207869458185</v>
+      </c>
+      <c r="I88">
+        <v>-0.004419793510956518</v>
+      </c>
+      <c r="J88">
+        <v>0.03197855117255104</v>
+      </c>
+      <c r="K88">
+        <v>0.015877347449999</v>
+      </c>
+      <c r="L88">
+        <v>-0.0558888783950048</v>
+      </c>
+      <c r="M88">
+        <v>0.05535326075807329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1453309498824958</v>
+        <v>-0.2071776207684549</v>
       </c>
       <c r="C89">
-        <v>0.3411963237453554</v>
+        <v>0.3624421495283227</v>
       </c>
       <c r="D89">
-        <v>-0.08930365575930978</v>
+        <v>0.04948485481925795</v>
       </c>
       <c r="E89">
-        <v>-0.09653849676995475</v>
+        <v>0.06561854865809399</v>
       </c>
       <c r="F89">
-        <v>0.04849507348188498</v>
+        <v>0.02111419208041641</v>
       </c>
       <c r="G89">
-        <v>0.02947535705049101</v>
+        <v>0.02064649140854875</v>
       </c>
       <c r="H89">
-        <v>0.007317002195211282</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.01779709398216588</v>
+      </c>
+      <c r="I89">
+        <v>0.002068223810788656</v>
+      </c>
+      <c r="J89">
+        <v>0.08119406213480071</v>
+      </c>
+      <c r="K89">
+        <v>0.01313002663987489</v>
+      </c>
+      <c r="L89">
+        <v>-0.02444226225861333</v>
+      </c>
+      <c r="M89">
+        <v>0.03068378319089916</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1108765267181364</v>
+        <v>-0.1517173963856995</v>
       </c>
       <c r="C90">
-        <v>0.2755231847964152</v>
+        <v>0.2685090345242845</v>
       </c>
       <c r="D90">
-        <v>-0.04083230575153253</v>
+        <v>-0.007558788130426781</v>
       </c>
       <c r="E90">
-        <v>-0.06082240580819444</v>
+        <v>0.01300479368575614</v>
       </c>
       <c r="F90">
-        <v>0.03793851006284733</v>
+        <v>0.03078292268995836</v>
       </c>
       <c r="G90">
-        <v>0.1035969524417086</v>
+        <v>-0.0136918598338077</v>
       </c>
       <c r="H90">
-        <v>0.003820444515029067</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.07244625949949711</v>
+      </c>
+      <c r="I90">
+        <v>-0.0025952920158271</v>
+      </c>
+      <c r="J90">
+        <v>0.01533800980561743</v>
+      </c>
+      <c r="K90">
+        <v>-0.04156768476959175</v>
+      </c>
+      <c r="L90">
+        <v>-0.02179991956684294</v>
+      </c>
+      <c r="M90">
+        <v>-0.05000771246150658</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08091362508642222</v>
+        <v>-0.08078932713591436</v>
       </c>
       <c r="C91">
-        <v>-0.01948935055631834</v>
+        <v>-0.05363388923793823</v>
       </c>
       <c r="D91">
-        <v>-0.01120361982999435</v>
+        <v>0.001119572305325476</v>
       </c>
       <c r="E91">
-        <v>0.009206058557159967</v>
+        <v>0.01056027426603746</v>
       </c>
       <c r="F91">
-        <v>-0.09892922620065436</v>
+        <v>-0.01678777726668311</v>
       </c>
       <c r="G91">
-        <v>-0.06217489701642157</v>
+        <v>-0.07129896056696086</v>
       </c>
       <c r="H91">
-        <v>-0.002587575068048881</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.07168301437343799</v>
+      </c>
+      <c r="I91">
+        <v>-0.04329273387247577</v>
+      </c>
+      <c r="J91">
+        <v>-0.02365393055147894</v>
+      </c>
+      <c r="K91">
+        <v>2.041507547290423e-05</v>
+      </c>
+      <c r="L91">
+        <v>-0.01213629109867091</v>
+      </c>
+      <c r="M91">
+        <v>-0.0121714199517589</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1177542124742406</v>
+        <v>-0.1709070486278117</v>
       </c>
       <c r="C92">
-        <v>0.3168822406528451</v>
+        <v>0.3135734049992679</v>
       </c>
       <c r="D92">
-        <v>-0.07329515426790137</v>
+        <v>0.03654407343523434</v>
       </c>
       <c r="E92">
-        <v>-0.05696233994883678</v>
+        <v>0.038414272474347</v>
       </c>
       <c r="F92">
-        <v>0.01077033962442962</v>
+        <v>0.04479416483241378</v>
       </c>
       <c r="G92">
-        <v>-0.09611608209368637</v>
+        <v>-0.02307556110662512</v>
       </c>
       <c r="H92">
-        <v>-0.03893891751395838</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03065457901056944</v>
+      </c>
+      <c r="I92">
+        <v>-0.009550749396345273</v>
+      </c>
+      <c r="J92">
+        <v>0.04744650899053519</v>
+      </c>
+      <c r="K92">
+        <v>0.01394225585509049</v>
+      </c>
+      <c r="L92">
+        <v>-0.0483668524018224</v>
+      </c>
+      <c r="M92">
+        <v>0.06193735049392363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1205083562616919</v>
+        <v>-0.1615639234146006</v>
       </c>
       <c r="C93">
-        <v>0.2656121465605904</v>
+        <v>0.290099923799617</v>
       </c>
       <c r="D93">
-        <v>-0.04728318295868014</v>
+        <v>-0.03172803380272857</v>
       </c>
       <c r="E93">
-        <v>-0.02641847766622464</v>
+        <v>0.004463618203348377</v>
       </c>
       <c r="F93">
-        <v>0.0347319251867064</v>
+        <v>0.01764091424929043</v>
       </c>
       <c r="G93">
-        <v>0.01722935343306515</v>
+        <v>0.005531340351925889</v>
       </c>
       <c r="H93">
-        <v>-0.01152209040854638</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.04029564647968698</v>
+      </c>
+      <c r="I93">
+        <v>-0.005539397850918087</v>
+      </c>
+      <c r="J93">
+        <v>-0.01704514258090031</v>
+      </c>
+      <c r="K93">
+        <v>0.03322290576018325</v>
+      </c>
+      <c r="L93">
+        <v>-0.002457500940566457</v>
+      </c>
+      <c r="M93">
+        <v>-0.00655328138293491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09562682504428743</v>
+        <v>-0.1140166386180863</v>
       </c>
       <c r="C94">
-        <v>-0.05407202480695648</v>
+        <v>-0.07114392401710745</v>
       </c>
       <c r="D94">
-        <v>-0.00851083619405891</v>
+        <v>0.01438858061620799</v>
       </c>
       <c r="E94">
-        <v>0.01998648017047465</v>
+        <v>0.02548375485032159</v>
       </c>
       <c r="F94">
-        <v>-0.1585922244052595</v>
+        <v>-0.03573730734096744</v>
       </c>
       <c r="G94">
-        <v>-0.08552397875326584</v>
+        <v>-0.1071601746067458</v>
       </c>
       <c r="H94">
-        <v>0.0608727998354314</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.1034800683723673</v>
+      </c>
+      <c r="I94">
+        <v>-0.03614093771540916</v>
+      </c>
+      <c r="J94">
+        <v>-0.03623704496650141</v>
+      </c>
+      <c r="K94">
+        <v>-0.0162808620623099</v>
+      </c>
+      <c r="L94">
+        <v>-0.04802223238444771</v>
+      </c>
+      <c r="M94">
+        <v>0.003317721500293212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1111355788577541</v>
+        <v>-0.114362343433536</v>
       </c>
       <c r="C95">
-        <v>-0.07976918032368217</v>
+        <v>-0.07349224099821226</v>
       </c>
       <c r="D95">
-        <v>-0.06519265409786879</v>
+        <v>0.02206878510682031</v>
       </c>
       <c r="E95">
-        <v>-0.04677349596763742</v>
+        <v>0.0578140576131319</v>
       </c>
       <c r="F95">
-        <v>0.0543761136159708</v>
+        <v>0.07666832509238583</v>
       </c>
       <c r="G95">
-        <v>0.03614979336883608</v>
+        <v>0.2121275538014554</v>
       </c>
       <c r="H95">
-        <v>0.001761262280046768</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1563061338017034</v>
+      </c>
+      <c r="I95">
+        <v>0.005915401580107758</v>
+      </c>
+      <c r="J95">
+        <v>0.006247299855331135</v>
+      </c>
+      <c r="K95">
+        <v>0.05185074166697676</v>
+      </c>
+      <c r="L95">
+        <v>0.009316138725043705</v>
+      </c>
+      <c r="M95">
+        <v>0.6021842222290189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.0003030931964712583</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0008396667558780059</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-8.890230532152582e-05</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.00135538857352386</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0002107484824567083</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.004281508578124779</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.005196028701575136</v>
+      </c>
+      <c r="I96">
+        <v>0.001424638441724907</v>
+      </c>
+      <c r="J96">
+        <v>0.0007424367970308975</v>
+      </c>
+      <c r="K96">
+        <v>-0.003804736649865782</v>
+      </c>
+      <c r="L96">
+        <v>-0.004038780125594355</v>
+      </c>
+      <c r="M96">
+        <v>-0.00791160214177802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.226476267954975</v>
+        <v>-0.1559875932511118</v>
       </c>
       <c r="C97">
-        <v>0.1015642423068711</v>
+        <v>-0.02568462648177629</v>
       </c>
       <c r="D97">
-        <v>0.9003775442322874</v>
+        <v>0.1129590503454016</v>
       </c>
       <c r="E97">
-        <v>0.04551787512599588</v>
+        <v>-0.9283967464399062</v>
       </c>
       <c r="F97">
-        <v>0.09832349533065621</v>
+        <v>0.001874148866210925</v>
       </c>
       <c r="G97">
-        <v>0.02181554952291787</v>
+        <v>0.127644577738854</v>
       </c>
       <c r="H97">
-        <v>-0.03557481052278304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.06781515257049545</v>
+      </c>
+      <c r="I97">
+        <v>-0.0970071244332146</v>
+      </c>
+      <c r="J97">
+        <v>0.01647379276894924</v>
+      </c>
+      <c r="K97">
+        <v>-0.0308731111360002</v>
+      </c>
+      <c r="L97">
+        <v>0.02649079118913528</v>
+      </c>
+      <c r="M97">
+        <v>-0.01291348134949739</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2952493829132292</v>
+        <v>-0.25401779112844</v>
       </c>
       <c r="C98">
-        <v>-0.1034817748256034</v>
+        <v>-0.1112797587603095</v>
       </c>
       <c r="D98">
-        <v>-0.0897655059681621</v>
+        <v>0.02758006480337125</v>
       </c>
       <c r="E98">
-        <v>0.1544305420314852</v>
+        <v>-0.006445279084452571</v>
       </c>
       <c r="F98">
-        <v>0.2779241264342261</v>
+        <v>-0.378899598883891</v>
       </c>
       <c r="G98">
-        <v>-0.2568064780579524</v>
+        <v>0.1758405151503143</v>
       </c>
       <c r="H98">
-        <v>-0.5463288108282894</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.0419934535395225</v>
+      </c>
+      <c r="I98">
+        <v>0.1782799748915146</v>
+      </c>
+      <c r="J98">
+        <v>0.3737294612290458</v>
+      </c>
+      <c r="K98">
+        <v>0.4383293347065719</v>
+      </c>
+      <c r="L98">
+        <v>0.2038629598235653</v>
+      </c>
+      <c r="M98">
+        <v>-0.01216728510265272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06539894493179477</v>
+        <v>-0.06686230679474535</v>
       </c>
       <c r="C99">
-        <v>-0.05148986778969777</v>
+        <v>-0.0544869440651502</v>
       </c>
       <c r="D99">
-        <v>-0.02736144272211595</v>
+        <v>0.005798108892912503</v>
       </c>
       <c r="E99">
-        <v>-0.0004263658530330745</v>
+        <v>0.04334593433329708</v>
       </c>
       <c r="F99">
-        <v>-0.01917365977915888</v>
+        <v>-0.01177246774943581</v>
       </c>
       <c r="G99">
-        <v>0.03513449733159589</v>
+        <v>-0.01882923560916258</v>
       </c>
       <c r="H99">
-        <v>-0.05023074199816776</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02180290969885125</v>
+      </c>
+      <c r="I99">
+        <v>-0.01377473682658345</v>
+      </c>
+      <c r="J99">
+        <v>0.02466975868660418</v>
+      </c>
+      <c r="K99">
+        <v>-0.04578250445407404</v>
+      </c>
+      <c r="L99">
+        <v>0.04824740620724</v>
+      </c>
+      <c r="M99">
+        <v>0.02066977740635708</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.00289540903788051</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.001976858112040362</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.003036318664732676</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.002730559163327057</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.01546944681055288</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.01305945745595043</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.002088737922242703</v>
+      </c>
+      <c r="I100">
+        <v>0.01452021643423767</v>
+      </c>
+      <c r="J100">
+        <v>0.01507794289857605</v>
+      </c>
+      <c r="K100">
+        <v>0.03289851494100958</v>
+      </c>
+      <c r="L100">
+        <v>0.01956461722664719</v>
+      </c>
+      <c r="M100">
+        <v>0.01386963906036465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05163025118664245</v>
+        <v>-0.04042633232848096</v>
       </c>
       <c r="C101">
-        <v>-0.01491837658391764</v>
+        <v>-0.02780272062329508</v>
       </c>
       <c r="D101">
-        <v>-0.01144695376288883</v>
+        <v>-0.006667025465771011</v>
       </c>
       <c r="E101">
-        <v>-0.02769290793640136</v>
+        <v>0.01639985393287277</v>
       </c>
       <c r="F101">
-        <v>-0.011245939858854</v>
+        <v>0.06798796137580551</v>
       </c>
       <c r="G101">
-        <v>-0.01624372303938407</v>
+        <v>-0.02026926579827172</v>
       </c>
       <c r="H101">
-        <v>0.02448332870299515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.01483489619959254</v>
+      </c>
+      <c r="I101">
+        <v>0.01124029157801987</v>
+      </c>
+      <c r="J101">
+        <v>-0.006912588855957194</v>
+      </c>
+      <c r="K101">
+        <v>0.08763530240835156</v>
+      </c>
+      <c r="L101">
+        <v>-0.01928569625984528</v>
+      </c>
+      <c r="M101">
+        <v>0.01892931990862705</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
